--- a/data/pitcher_data/2021/alexander_scott.xlsx
+++ b/data/pitcher_data/2021/alexander_scott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T326"/>
+  <dimension ref="A1:U326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,20 +511,25 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>inning_topbot</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>at_bat_number</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>pitch_number</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>home_score</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>away_score</t>
         </is>
@@ -587,16 +592,21 @@
       <c r="P2" t="n">
         <v>6</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>50</v>
       </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -655,16 +665,21 @@
       <c r="P3" t="n">
         <v>6</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>49</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>6</v>
       </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
       <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -713,16 +728,21 @@
       <c r="P4" t="n">
         <v>6</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>49</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>5</v>
       </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
       <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -771,16 +791,21 @@
       <c r="P5" t="n">
         <v>6</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>49</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>4</v>
       </c>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
       <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -829,16 +854,21 @@
       <c r="P6" t="n">
         <v>6</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>49</v>
       </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -887,16 +917,21 @@
       <c r="P7" t="n">
         <v>6</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
         <v>49</v>
       </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
       <c r="S7" t="n">
         <v>2</v>
       </c>
       <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -945,16 +980,21 @@
       <c r="P8" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>49</v>
       </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1015,16 +1055,21 @@
       <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
         <v>44</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>5</v>
       </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
       <c r="T9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1075,16 +1120,21 @@
       <c r="P10" t="n">
         <v>5</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
         <v>44</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>4</v>
       </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
       <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1135,16 +1185,21 @@
       <c r="P11" t="n">
         <v>5</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
         <v>44</v>
       </c>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1195,16 +1250,21 @@
       <c r="P12" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>44</v>
       </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
       <c r="S12" t="n">
         <v>2</v>
       </c>
       <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1255,16 +1315,21 @@
       <c r="P13" t="n">
         <v>5</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>44</v>
       </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1323,16 +1388,21 @@
       <c r="P14" t="n">
         <v>7</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>51</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>4</v>
       </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
       <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1381,16 +1451,21 @@
       <c r="P15" t="n">
         <v>7</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>51</v>
       </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1439,16 +1514,21 @@
       <c r="P16" t="n">
         <v>7</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>51</v>
       </c>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1497,16 +1577,21 @@
       <c r="P17" t="n">
         <v>7</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
         <v>51</v>
       </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
       <c r="S17" t="n">
         <v>1</v>
       </c>
       <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1565,16 +1650,21 @@
       <c r="P18" t="n">
         <v>7</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
         <v>50</v>
       </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1623,16 +1713,21 @@
       <c r="P19" t="n">
         <v>7</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>50</v>
       </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1681,16 +1776,21 @@
       <c r="P20" t="n">
         <v>7</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>50</v>
       </c>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
       <c r="S20" t="n">
         <v>1</v>
       </c>
       <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1749,16 +1849,21 @@
       <c r="P21" t="n">
         <v>7</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
         <v>49</v>
       </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1807,16 +1912,21 @@
       <c r="P22" t="n">
         <v>7</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
         <v>49</v>
       </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
       <c r="S22" t="n">
         <v>1</v>
       </c>
       <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1875,16 +1985,21 @@
       <c r="P23" t="n">
         <v>7</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
         <v>48</v>
       </c>
-      <c r="R23" t="n">
-        <v>2</v>
-      </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1935,16 +2050,21 @@
       <c r="P24" t="n">
         <v>7</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
         <v>48</v>
       </c>
-      <c r="R24" t="n">
-        <v>1</v>
-      </c>
       <c r="S24" t="n">
         <v>1</v>
       </c>
       <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2003,16 +2123,21 @@
       <c r="P25" t="n">
         <v>7</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
         <v>47</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>5</v>
       </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
       <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2061,16 +2186,21 @@
       <c r="P26" t="n">
         <v>7</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
         <v>47</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>4</v>
       </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
       <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2119,16 +2249,21 @@
       <c r="P27" t="n">
         <v>7</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
         <v>47</v>
       </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2177,16 +2312,21 @@
       <c r="P28" t="n">
         <v>7</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
         <v>47</v>
       </c>
-      <c r="R28" t="n">
-        <v>2</v>
-      </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2235,16 +2375,21 @@
       <c r="P29" t="n">
         <v>7</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
         <v>47</v>
       </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
       <c r="S29" t="n">
         <v>1</v>
       </c>
       <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2305,16 +2450,21 @@
       <c r="P30" t="n">
         <v>8</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>67</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>6</v>
       </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
       <c r="T30" t="n">
+        <v>2</v>
+      </c>
+      <c r="U30" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2365,16 +2515,21 @@
       <c r="P31" t="n">
         <v>8</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
         <v>67</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>5</v>
       </c>
-      <c r="S31" t="n">
-        <v>2</v>
-      </c>
       <c r="T31" t="n">
+        <v>2</v>
+      </c>
+      <c r="U31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2425,16 +2580,21 @@
       <c r="P32" t="n">
         <v>8</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
         <v>67</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>4</v>
       </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
       <c r="T32" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2485,16 +2645,21 @@
       <c r="P33" t="n">
         <v>8</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
         <v>67</v>
       </c>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
+        <v>2</v>
+      </c>
+      <c r="U33" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2545,16 +2710,21 @@
       <c r="P34" t="n">
         <v>8</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
         <v>67</v>
       </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
       <c r="S34" t="n">
         <v>2</v>
       </c>
       <c r="T34" t="n">
+        <v>2</v>
+      </c>
+      <c r="U34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2605,16 +2775,21 @@
       <c r="P35" t="n">
         <v>8</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
         <v>67</v>
       </c>
-      <c r="R35" t="n">
-        <v>1</v>
-      </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2667,16 +2842,21 @@
       <c r="P36" t="n">
         <v>8</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
         <v>66</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>5</v>
       </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
       <c r="T36" t="n">
+        <v>2</v>
+      </c>
+      <c r="U36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2725,16 +2905,21 @@
       <c r="P37" t="n">
         <v>8</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
         <v>66</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>4</v>
       </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
       <c r="T37" t="n">
+        <v>2</v>
+      </c>
+      <c r="U37" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2783,16 +2968,21 @@
       <c r="P38" t="n">
         <v>8</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
         <v>66</v>
       </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2841,16 +3031,21 @@
       <c r="P39" t="n">
         <v>8</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
         <v>66</v>
       </c>
-      <c r="R39" t="n">
-        <v>2</v>
-      </c>
       <c r="S39" t="n">
         <v>2</v>
       </c>
       <c r="T39" t="n">
+        <v>2</v>
+      </c>
+      <c r="U39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2899,16 +3094,21 @@
       <c r="P40" t="n">
         <v>8</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
         <v>66</v>
       </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
+        <v>2</v>
+      </c>
+      <c r="U40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2967,16 +3167,21 @@
       <c r="P41" t="n">
         <v>8</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
         <v>65</v>
       </c>
-      <c r="R41" t="n">
-        <v>1</v>
-      </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
+        <v>2</v>
+      </c>
+      <c r="U41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3035,16 +3240,21 @@
       <c r="P42" t="n">
         <v>8</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>64</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>4</v>
       </c>
-      <c r="S42" t="n">
-        <v>2</v>
-      </c>
       <c r="T42" t="n">
+        <v>2</v>
+      </c>
+      <c r="U42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3093,16 +3303,21 @@
       <c r="P43" t="n">
         <v>8</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
         <v>64</v>
       </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T43" t="n">
+        <v>2</v>
+      </c>
+      <c r="U43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3151,16 +3366,21 @@
       <c r="P44" t="n">
         <v>8</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>64</v>
       </c>
-      <c r="R44" t="n">
-        <v>2</v>
-      </c>
       <c r="S44" t="n">
         <v>2</v>
       </c>
       <c r="T44" t="n">
+        <v>2</v>
+      </c>
+      <c r="U44" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3209,16 +3429,21 @@
       <c r="P45" t="n">
         <v>8</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>64</v>
       </c>
-      <c r="R45" t="n">
-        <v>1</v>
-      </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3279,16 +3504,21 @@
       <c r="P46" t="n">
         <v>9</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
         <v>79</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>7</v>
       </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
       <c r="T46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3343,16 +3573,21 @@
       <c r="P47" t="n">
         <v>9</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
         <v>79</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>6</v>
       </c>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
       <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3407,16 +3642,21 @@
       <c r="P48" t="n">
         <v>9</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
         <v>79</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>5</v>
       </c>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
       <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3471,16 +3711,21 @@
       <c r="P49" t="n">
         <v>9</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
         <v>79</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>4</v>
       </c>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
       <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3535,16 +3780,21 @@
       <c r="P50" t="n">
         <v>9</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>79</v>
       </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3599,16 +3849,21 @@
       <c r="P51" t="n">
         <v>9</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>79</v>
       </c>
-      <c r="R51" t="n">
-        <v>2</v>
-      </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3663,16 +3918,21 @@
       <c r="P52" t="n">
         <v>9</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
         <v>79</v>
       </c>
-      <c r="R52" t="n">
-        <v>1</v>
-      </c>
       <c r="S52" t="n">
         <v>1</v>
       </c>
       <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3735,16 +3995,21 @@
       <c r="P53" t="n">
         <v>9</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
         <v>78</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>5</v>
       </c>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
       <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3797,16 +4062,21 @@
       <c r="P54" t="n">
         <v>9</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
         <v>78</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>4</v>
       </c>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
       <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,16 +4129,21 @@
       <c r="P55" t="n">
         <v>9</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
         <v>78</v>
       </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3921,16 +4196,21 @@
       <c r="P56" t="n">
         <v>9</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
         <v>78</v>
       </c>
-      <c r="R56" t="n">
-        <v>2</v>
-      </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,16 +4263,21 @@
       <c r="P57" t="n">
         <v>9</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
         <v>78</v>
       </c>
-      <c r="R57" t="n">
-        <v>1</v>
-      </c>
       <c r="S57" t="n">
         <v>1</v>
       </c>
       <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4051,16 +4336,21 @@
       <c r="P58" t="n">
         <v>9</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
         <v>77</v>
       </c>
-      <c r="R58" t="n">
+      <c r="S58" t="n">
         <v>4</v>
       </c>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
       <c r="T58" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4113,16 +4403,21 @@
       <c r="P59" t="n">
         <v>9</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
         <v>77</v>
       </c>
-      <c r="R59" t="n">
-        <v>3</v>
-      </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4175,16 +4470,21 @@
       <c r="P60" t="n">
         <v>9</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
         <v>77</v>
       </c>
-      <c r="R60" t="n">
-        <v>2</v>
-      </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4237,16 +4537,21 @@
       <c r="P61" t="n">
         <v>9</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
         <v>77</v>
       </c>
-      <c r="R61" t="n">
-        <v>1</v>
-      </c>
       <c r="S61" t="n">
         <v>1</v>
       </c>
       <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,16 +4606,21 @@
       <c r="P62" t="n">
         <v>9</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
         <v>76</v>
       </c>
-      <c r="R62" t="n">
+      <c r="S62" t="n">
         <v>5</v>
       </c>
-      <c r="S62" t="n">
-        <v>1</v>
-      </c>
       <c r="T62" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4361,16 +4671,21 @@
       <c r="P63" t="n">
         <v>9</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
         <v>76</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>4</v>
       </c>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
       <c r="T63" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,16 +4736,21 @@
       <c r="P64" t="n">
         <v>9</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
         <v>76</v>
       </c>
-      <c r="R64" t="n">
-        <v>3</v>
-      </c>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4481,16 +4801,21 @@
       <c r="P65" t="n">
         <v>9</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
         <v>76</v>
       </c>
-      <c r="R65" t="n">
-        <v>2</v>
-      </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T65" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4541,16 +4866,21 @@
       <c r="P66" t="n">
         <v>9</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
         <v>76</v>
       </c>
-      <c r="R66" t="n">
-        <v>1</v>
-      </c>
       <c r="S66" t="n">
         <v>1</v>
       </c>
       <c r="T66" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,16 +4939,21 @@
       <c r="P67" t="n">
         <v>9</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
         <v>75</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>6</v>
       </c>
-      <c r="S67" t="n">
-        <v>1</v>
-      </c>
       <c r="T67" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4667,16 +5002,21 @@
       <c r="P68" t="n">
         <v>9</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
         <v>75</v>
       </c>
-      <c r="R68" t="n">
+      <c r="S68" t="n">
         <v>5</v>
       </c>
-      <c r="S68" t="n">
-        <v>1</v>
-      </c>
       <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4725,16 +5065,21 @@
       <c r="P69" t="n">
         <v>9</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
         <v>75</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>4</v>
       </c>
-      <c r="S69" t="n">
-        <v>1</v>
-      </c>
       <c r="T69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,16 +5128,21 @@
       <c r="P70" t="n">
         <v>9</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
         <v>75</v>
       </c>
-      <c r="R70" t="n">
-        <v>3</v>
-      </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,16 +5191,21 @@
       <c r="P71" t="n">
         <v>9</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
         <v>75</v>
       </c>
-      <c r="R71" t="n">
-        <v>2</v>
-      </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T71" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4899,16 +5254,21 @@
       <c r="P72" t="n">
         <v>9</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
         <v>75</v>
       </c>
-      <c r="R72" t="n">
-        <v>1</v>
-      </c>
       <c r="S72" t="n">
         <v>1</v>
       </c>
       <c r="T72" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4965,16 +5325,21 @@
       <c r="P73" t="n">
         <v>6</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
         <v>53</v>
       </c>
-      <c r="R73" t="n">
+      <c r="S73" t="n">
         <v>6</v>
       </c>
-      <c r="S73" t="n">
+      <c r="T73" t="n">
         <v>4</v>
       </c>
-      <c r="T73" t="n">
+      <c r="U73" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5025,16 +5390,21 @@
       <c r="P74" t="n">
         <v>6</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
         <v>53</v>
       </c>
-      <c r="R74" t="n">
+      <c r="S74" t="n">
         <v>5</v>
       </c>
-      <c r="S74" t="n">
+      <c r="T74" t="n">
         <v>4</v>
       </c>
-      <c r="T74" t="n">
+      <c r="U74" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5085,16 +5455,21 @@
       <c r="P75" t="n">
         <v>6</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
         <v>53</v>
-      </c>
-      <c r="R75" t="n">
-        <v>4</v>
       </c>
       <c r="S75" t="n">
         <v>4</v>
       </c>
       <c r="T75" t="n">
+        <v>4</v>
+      </c>
+      <c r="U75" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5145,16 +5520,21 @@
       <c r="P76" t="n">
         <v>6</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
         <v>53</v>
       </c>
-      <c r="R76" t="n">
-        <v>3</v>
-      </c>
       <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="n">
         <v>4</v>
       </c>
-      <c r="T76" t="n">
+      <c r="U76" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5205,16 +5585,21 @@
       <c r="P77" t="n">
         <v>6</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
         <v>53</v>
       </c>
-      <c r="R77" t="n">
-        <v>2</v>
-      </c>
       <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="n">
         <v>4</v>
       </c>
-      <c r="T77" t="n">
+      <c r="U77" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5265,16 +5650,21 @@
       <c r="P78" t="n">
         <v>6</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
         <v>53</v>
       </c>
-      <c r="R78" t="n">
-        <v>1</v>
-      </c>
       <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="n">
         <v>4</v>
       </c>
-      <c r="T78" t="n">
+      <c r="U78" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5335,16 +5725,21 @@
       <c r="P79" t="n">
         <v>6</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
         <v>52</v>
       </c>
-      <c r="R79" t="n">
-        <v>1</v>
-      </c>
       <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="n">
         <v>4</v>
       </c>
-      <c r="T79" t="n">
+      <c r="U79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5403,16 +5798,21 @@
       <c r="P80" t="n">
         <v>6</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
         <v>51</v>
-      </c>
-      <c r="R80" t="n">
-        <v>4</v>
       </c>
       <c r="S80" t="n">
         <v>4</v>
       </c>
       <c r="T80" t="n">
+        <v>4</v>
+      </c>
+      <c r="U80" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5461,16 +5861,21 @@
       <c r="P81" t="n">
         <v>6</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
         <v>51</v>
       </c>
-      <c r="R81" t="n">
-        <v>3</v>
-      </c>
       <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="n">
         <v>4</v>
       </c>
-      <c r="T81" t="n">
+      <c r="U81" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5519,16 +5924,21 @@
       <c r="P82" t="n">
         <v>6</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
         <v>51</v>
       </c>
-      <c r="R82" t="n">
-        <v>2</v>
-      </c>
       <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="n">
         <v>4</v>
       </c>
-      <c r="T82" t="n">
+      <c r="U82" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5577,16 +5987,21 @@
       <c r="P83" t="n">
         <v>6</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
         <v>51</v>
       </c>
-      <c r="R83" t="n">
-        <v>1</v>
-      </c>
       <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="n">
         <v>4</v>
       </c>
-      <c r="T83" t="n">
+      <c r="U83" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5645,16 +6060,21 @@
       <c r="P84" t="n">
         <v>6</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
         <v>50</v>
       </c>
-      <c r="R84" t="n">
-        <v>3</v>
-      </c>
       <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="n">
         <v>4</v>
       </c>
-      <c r="T84" t="n">
+      <c r="U84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5703,16 +6123,21 @@
       <c r="P85" t="n">
         <v>6</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
         <v>50</v>
       </c>
-      <c r="R85" t="n">
-        <v>2</v>
-      </c>
       <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="n">
         <v>4</v>
       </c>
-      <c r="T85" t="n">
+      <c r="U85" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5761,16 +6186,21 @@
       <c r="P86" t="n">
         <v>6</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
         <v>50</v>
       </c>
-      <c r="R86" t="n">
-        <v>1</v>
-      </c>
       <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="n">
         <v>4</v>
       </c>
-      <c r="T86" t="n">
+      <c r="U86" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5831,16 +6261,21 @@
       <c r="P87" t="n">
         <v>5</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
         <v>43</v>
       </c>
-      <c r="R87" t="n">
+      <c r="S87" t="n">
         <v>4</v>
       </c>
-      <c r="S87" t="n">
-        <v>2</v>
-      </c>
       <c r="T87" t="n">
+        <v>2</v>
+      </c>
+      <c r="U87" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5891,16 +6326,21 @@
       <c r="P88" t="n">
         <v>5</v>
       </c>
-      <c r="Q88" t="n">
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
         <v>43</v>
       </c>
-      <c r="R88" t="n">
-        <v>3</v>
-      </c>
       <c r="S88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T88" t="n">
+        <v>2</v>
+      </c>
+      <c r="U88" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5951,16 +6391,21 @@
       <c r="P89" t="n">
         <v>5</v>
       </c>
-      <c r="Q89" t="n">
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
         <v>43</v>
       </c>
-      <c r="R89" t="n">
-        <v>2</v>
-      </c>
       <c r="S89" t="n">
         <v>2</v>
       </c>
       <c r="T89" t="n">
+        <v>2</v>
+      </c>
+      <c r="U89" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6011,16 +6456,21 @@
       <c r="P90" t="n">
         <v>5</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
         <v>43</v>
       </c>
-      <c r="R90" t="n">
-        <v>1</v>
-      </c>
       <c r="S90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T90" t="n">
+        <v>2</v>
+      </c>
+      <c r="U90" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6073,16 +6523,21 @@
       <c r="P91" t="n">
         <v>5</v>
       </c>
-      <c r="Q91" t="n">
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
         <v>42</v>
       </c>
-      <c r="R91" t="n">
+      <c r="S91" t="n">
         <v>6</v>
       </c>
-      <c r="S91" t="n">
-        <v>2</v>
-      </c>
       <c r="T91" t="n">
+        <v>2</v>
+      </c>
+      <c r="U91" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6131,16 +6586,21 @@
       <c r="P92" t="n">
         <v>5</v>
       </c>
-      <c r="Q92" t="n">
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
         <v>42</v>
       </c>
-      <c r="R92" t="n">
+      <c r="S92" t="n">
         <v>5</v>
       </c>
-      <c r="S92" t="n">
-        <v>2</v>
-      </c>
       <c r="T92" t="n">
+        <v>2</v>
+      </c>
+      <c r="U92" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6189,16 +6649,21 @@
       <c r="P93" t="n">
         <v>5</v>
       </c>
-      <c r="Q93" t="n">
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
         <v>42</v>
       </c>
-      <c r="R93" t="n">
+      <c r="S93" t="n">
         <v>4</v>
       </c>
-      <c r="S93" t="n">
-        <v>2</v>
-      </c>
       <c r="T93" t="n">
+        <v>2</v>
+      </c>
+      <c r="U93" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6247,16 +6712,21 @@
       <c r="P94" t="n">
         <v>5</v>
       </c>
-      <c r="Q94" t="n">
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
         <v>42</v>
       </c>
-      <c r="R94" t="n">
-        <v>3</v>
-      </c>
       <c r="S94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T94" t="n">
+        <v>2</v>
+      </c>
+      <c r="U94" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6305,16 +6775,21 @@
       <c r="P95" t="n">
         <v>5</v>
       </c>
-      <c r="Q95" t="n">
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
         <v>42</v>
       </c>
-      <c r="R95" t="n">
-        <v>2</v>
-      </c>
       <c r="S95" t="n">
         <v>2</v>
       </c>
       <c r="T95" t="n">
+        <v>2</v>
+      </c>
+      <c r="U95" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6363,16 +6838,21 @@
       <c r="P96" t="n">
         <v>5</v>
       </c>
-      <c r="Q96" t="n">
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
         <v>42</v>
       </c>
-      <c r="R96" t="n">
-        <v>1</v>
-      </c>
       <c r="S96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T96" t="n">
+        <v>2</v>
+      </c>
+      <c r="U96" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6427,16 +6907,21 @@
       <c r="P97" t="n">
         <v>5</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
         <v>41</v>
       </c>
-      <c r="R97" t="n">
+      <c r="S97" t="n">
         <v>5</v>
       </c>
-      <c r="S97" t="n">
-        <v>2</v>
-      </c>
       <c r="T97" t="n">
+        <v>2</v>
+      </c>
+      <c r="U97" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6485,16 +6970,21 @@
       <c r="P98" t="n">
         <v>5</v>
       </c>
-      <c r="Q98" t="n">
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
         <v>41</v>
       </c>
-      <c r="R98" t="n">
+      <c r="S98" t="n">
         <v>4</v>
       </c>
-      <c r="S98" t="n">
-        <v>2</v>
-      </c>
       <c r="T98" t="n">
+        <v>2</v>
+      </c>
+      <c r="U98" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6543,16 +7033,21 @@
       <c r="P99" t="n">
         <v>5</v>
       </c>
-      <c r="Q99" t="n">
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
         <v>41</v>
       </c>
-      <c r="R99" t="n">
-        <v>3</v>
-      </c>
       <c r="S99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T99" t="n">
+        <v>2</v>
+      </c>
+      <c r="U99" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6601,16 +7096,21 @@
       <c r="P100" t="n">
         <v>5</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
         <v>41</v>
       </c>
-      <c r="R100" t="n">
-        <v>2</v>
-      </c>
       <c r="S100" t="n">
         <v>2</v>
       </c>
       <c r="T100" t="n">
+        <v>2</v>
+      </c>
+      <c r="U100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6659,16 +7159,21 @@
       <c r="P101" t="n">
         <v>5</v>
       </c>
-      <c r="Q101" t="n">
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
         <v>41</v>
       </c>
-      <c r="R101" t="n">
-        <v>1</v>
-      </c>
       <c r="S101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T101" t="n">
+        <v>2</v>
+      </c>
+      <c r="U101" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6727,16 +7232,21 @@
       <c r="P102" t="n">
         <v>5</v>
       </c>
-      <c r="Q102" t="n">
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
         <v>40</v>
       </c>
-      <c r="R102" t="n">
+      <c r="S102" t="n">
         <v>4</v>
       </c>
-      <c r="S102" t="n">
-        <v>2</v>
-      </c>
       <c r="T102" t="n">
+        <v>2</v>
+      </c>
+      <c r="U102" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6785,16 +7295,21 @@
       <c r="P103" t="n">
         <v>5</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
         <v>40</v>
       </c>
-      <c r="R103" t="n">
-        <v>3</v>
-      </c>
       <c r="S103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T103" t="n">
+        <v>2</v>
+      </c>
+      <c r="U103" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6843,16 +7358,21 @@
       <c r="P104" t="n">
         <v>5</v>
       </c>
-      <c r="Q104" t="n">
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
         <v>40</v>
       </c>
-      <c r="R104" t="n">
-        <v>2</v>
-      </c>
       <c r="S104" t="n">
         <v>2</v>
       </c>
       <c r="T104" t="n">
+        <v>2</v>
+      </c>
+      <c r="U104" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6901,16 +7421,21 @@
       <c r="P105" t="n">
         <v>5</v>
       </c>
-      <c r="Q105" t="n">
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
         <v>40</v>
       </c>
-      <c r="R105" t="n">
-        <v>1</v>
-      </c>
       <c r="S105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T105" t="n">
+        <v>2</v>
+      </c>
+      <c r="U105" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6965,16 +7490,21 @@
       <c r="P106" t="n">
         <v>3</v>
       </c>
-      <c r="Q106" t="n">
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
         <v>23</v>
       </c>
-      <c r="R106" t="n">
+      <c r="S106" t="n">
         <v>6</v>
       </c>
-      <c r="S106" t="n">
-        <v>2</v>
-      </c>
       <c r="T106" t="n">
+        <v>2</v>
+      </c>
+      <c r="U106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7023,16 +7553,21 @@
       <c r="P107" t="n">
         <v>3</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
         <v>23</v>
       </c>
-      <c r="R107" t="n">
+      <c r="S107" t="n">
         <v>5</v>
       </c>
-      <c r="S107" t="n">
-        <v>2</v>
-      </c>
       <c r="T107" t="n">
+        <v>2</v>
+      </c>
+      <c r="U107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7081,16 +7616,21 @@
       <c r="P108" t="n">
         <v>3</v>
       </c>
-      <c r="Q108" t="n">
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
         <v>23</v>
       </c>
-      <c r="R108" t="n">
+      <c r="S108" t="n">
         <v>4</v>
       </c>
-      <c r="S108" t="n">
-        <v>2</v>
-      </c>
       <c r="T108" t="n">
+        <v>2</v>
+      </c>
+      <c r="U108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7139,16 +7679,21 @@
       <c r="P109" t="n">
         <v>3</v>
       </c>
-      <c r="Q109" t="n">
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
         <v>23</v>
       </c>
-      <c r="R109" t="n">
-        <v>3</v>
-      </c>
       <c r="S109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T109" t="n">
+        <v>2</v>
+      </c>
+      <c r="U109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7197,16 +7742,21 @@
       <c r="P110" t="n">
         <v>3</v>
       </c>
-      <c r="Q110" t="n">
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
         <v>23</v>
       </c>
-      <c r="R110" t="n">
-        <v>2</v>
-      </c>
       <c r="S110" t="n">
         <v>2</v>
       </c>
       <c r="T110" t="n">
+        <v>2</v>
+      </c>
+      <c r="U110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7255,16 +7805,21 @@
       <c r="P111" t="n">
         <v>3</v>
       </c>
-      <c r="Q111" t="n">
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
         <v>23</v>
       </c>
-      <c r="R111" t="n">
-        <v>1</v>
-      </c>
       <c r="S111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T111" t="n">
+        <v>2</v>
+      </c>
+      <c r="U111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7323,16 +7878,21 @@
       <c r="P112" t="n">
         <v>3</v>
       </c>
-      <c r="Q112" t="n">
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
         <v>22</v>
       </c>
-      <c r="R112" t="n">
-        <v>2</v>
-      </c>
       <c r="S112" t="n">
         <v>2</v>
       </c>
       <c r="T112" t="n">
+        <v>2</v>
+      </c>
+      <c r="U112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7381,16 +7941,21 @@
       <c r="P113" t="n">
         <v>3</v>
       </c>
-      <c r="Q113" t="n">
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
         <v>22</v>
       </c>
-      <c r="R113" t="n">
-        <v>1</v>
-      </c>
       <c r="S113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T113" t="n">
+        <v>2</v>
+      </c>
+      <c r="U113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7449,16 +8014,21 @@
       <c r="P114" t="n">
         <v>3</v>
       </c>
-      <c r="Q114" t="n">
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
         <v>21</v>
       </c>
-      <c r="R114" t="n">
+      <c r="S114" t="n">
         <v>4</v>
       </c>
-      <c r="S114" t="n">
-        <v>2</v>
-      </c>
       <c r="T114" t="n">
+        <v>2</v>
+      </c>
+      <c r="U114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7507,16 +8077,21 @@
       <c r="P115" t="n">
         <v>3</v>
       </c>
-      <c r="Q115" t="n">
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
         <v>21</v>
       </c>
-      <c r="R115" t="n">
-        <v>3</v>
-      </c>
       <c r="S115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T115" t="n">
+        <v>2</v>
+      </c>
+      <c r="U115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7565,16 +8140,21 @@
       <c r="P116" t="n">
         <v>3</v>
       </c>
-      <c r="Q116" t="n">
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
         <v>21</v>
       </c>
-      <c r="R116" t="n">
-        <v>2</v>
-      </c>
       <c r="S116" t="n">
         <v>2</v>
       </c>
       <c r="T116" t="n">
+        <v>2</v>
+      </c>
+      <c r="U116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7623,16 +8203,21 @@
       <c r="P117" t="n">
         <v>3</v>
       </c>
-      <c r="Q117" t="n">
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
         <v>21</v>
       </c>
-      <c r="R117" t="n">
-        <v>1</v>
-      </c>
       <c r="S117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T117" t="n">
+        <v>2</v>
+      </c>
+      <c r="U117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7691,16 +8276,21 @@
       <c r="P118" t="n">
         <v>8</v>
       </c>
-      <c r="Q118" t="n">
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
         <v>65</v>
       </c>
-      <c r="R118" t="n">
-        <v>1</v>
-      </c>
       <c r="S118" t="n">
+        <v>1</v>
+      </c>
+      <c r="T118" t="n">
         <v>5</v>
       </c>
-      <c r="T118" t="n">
+      <c r="U118" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7761,16 +8351,21 @@
       <c r="P119" t="n">
         <v>7</v>
       </c>
-      <c r="Q119" t="n">
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
         <v>61</v>
-      </c>
-      <c r="R119" t="n">
-        <v>5</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
       </c>
       <c r="T119" t="n">
+        <v>5</v>
+      </c>
+      <c r="U119" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7821,16 +8416,21 @@
       <c r="P120" t="n">
         <v>7</v>
       </c>
-      <c r="Q120" t="n">
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
         <v>61</v>
       </c>
-      <c r="R120" t="n">
+      <c r="S120" t="n">
         <v>4</v>
       </c>
-      <c r="S120" t="n">
+      <c r="T120" t="n">
         <v>5</v>
       </c>
-      <c r="T120" t="n">
+      <c r="U120" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7881,16 +8481,21 @@
       <c r="P121" t="n">
         <v>7</v>
       </c>
-      <c r="Q121" t="n">
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
         <v>61</v>
       </c>
-      <c r="R121" t="n">
-        <v>3</v>
-      </c>
       <c r="S121" t="n">
+        <v>3</v>
+      </c>
+      <c r="T121" t="n">
         <v>5</v>
       </c>
-      <c r="T121" t="n">
+      <c r="U121" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7941,16 +8546,21 @@
       <c r="P122" t="n">
         <v>7</v>
       </c>
-      <c r="Q122" t="n">
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
         <v>61</v>
       </c>
-      <c r="R122" t="n">
-        <v>2</v>
-      </c>
       <c r="S122" t="n">
+        <v>2</v>
+      </c>
+      <c r="T122" t="n">
         <v>5</v>
       </c>
-      <c r="T122" t="n">
+      <c r="U122" t="n">
         <v>6</v>
       </c>
     </row>
@@ -8001,16 +8611,21 @@
       <c r="P123" t="n">
         <v>7</v>
       </c>
-      <c r="Q123" t="n">
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
         <v>61</v>
       </c>
-      <c r="R123" t="n">
-        <v>1</v>
-      </c>
       <c r="S123" t="n">
+        <v>1</v>
+      </c>
+      <c r="T123" t="n">
         <v>5</v>
       </c>
-      <c r="T123" t="n">
+      <c r="U123" t="n">
         <v>6</v>
       </c>
     </row>
@@ -8073,16 +8688,21 @@
       <c r="P124" t="n">
         <v>7</v>
       </c>
-      <c r="Q124" t="n">
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
         <v>60</v>
       </c>
-      <c r="R124" t="n">
+      <c r="S124" t="n">
         <v>6</v>
       </c>
-      <c r="S124" t="n">
+      <c r="T124" t="n">
         <v>5</v>
       </c>
-      <c r="T124" t="n">
+      <c r="U124" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8135,16 +8755,21 @@
       <c r="P125" t="n">
         <v>7</v>
       </c>
-      <c r="Q125" t="n">
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
         <v>60</v>
-      </c>
-      <c r="R125" t="n">
-        <v>5</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
       </c>
       <c r="T125" t="n">
+        <v>5</v>
+      </c>
+      <c r="U125" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8197,16 +8822,21 @@
       <c r="P126" t="n">
         <v>7</v>
       </c>
-      <c r="Q126" t="n">
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
         <v>60</v>
       </c>
-      <c r="R126" t="n">
+      <c r="S126" t="n">
         <v>4</v>
       </c>
-      <c r="S126" t="n">
+      <c r="T126" t="n">
         <v>5</v>
       </c>
-      <c r="T126" t="n">
+      <c r="U126" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8259,16 +8889,21 @@
       <c r="P127" t="n">
         <v>7</v>
       </c>
-      <c r="Q127" t="n">
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
         <v>60</v>
       </c>
-      <c r="R127" t="n">
-        <v>3</v>
-      </c>
       <c r="S127" t="n">
+        <v>3</v>
+      </c>
+      <c r="T127" t="n">
         <v>5</v>
       </c>
-      <c r="T127" t="n">
+      <c r="U127" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8321,16 +8956,21 @@
       <c r="P128" t="n">
         <v>7</v>
       </c>
-      <c r="Q128" t="n">
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
         <v>60</v>
       </c>
-      <c r="R128" t="n">
-        <v>2</v>
-      </c>
       <c r="S128" t="n">
+        <v>2</v>
+      </c>
+      <c r="T128" t="n">
         <v>5</v>
       </c>
-      <c r="T128" t="n">
+      <c r="U128" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8383,16 +9023,21 @@
       <c r="P129" t="n">
         <v>7</v>
       </c>
-      <c r="Q129" t="n">
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
         <v>60</v>
       </c>
-      <c r="R129" t="n">
-        <v>1</v>
-      </c>
       <c r="S129" t="n">
+        <v>1</v>
+      </c>
+      <c r="T129" t="n">
         <v>5</v>
       </c>
-      <c r="T129" t="n">
+      <c r="U129" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8453,16 +9098,21 @@
       <c r="P130" t="n">
         <v>7</v>
       </c>
-      <c r="Q130" t="n">
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
         <v>59</v>
       </c>
-      <c r="R130" t="n">
-        <v>3</v>
-      </c>
       <c r="S130" t="n">
+        <v>3</v>
+      </c>
+      <c r="T130" t="n">
         <v>5</v>
       </c>
-      <c r="T130" t="n">
+      <c r="U130" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8513,16 +9163,21 @@
       <c r="P131" t="n">
         <v>7</v>
       </c>
-      <c r="Q131" t="n">
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
         <v>59</v>
       </c>
-      <c r="R131" t="n">
-        <v>2</v>
-      </c>
       <c r="S131" t="n">
+        <v>2</v>
+      </c>
+      <c r="T131" t="n">
         <v>5</v>
       </c>
-      <c r="T131" t="n">
+      <c r="U131" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8573,16 +9228,21 @@
       <c r="P132" t="n">
         <v>7</v>
       </c>
-      <c r="Q132" t="n">
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
         <v>59</v>
       </c>
-      <c r="R132" t="n">
-        <v>1</v>
-      </c>
       <c r="S132" t="n">
+        <v>1</v>
+      </c>
+      <c r="T132" t="n">
         <v>5</v>
       </c>
-      <c r="T132" t="n">
+      <c r="U132" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8643,16 +9303,21 @@
       <c r="P133" t="n">
         <v>7</v>
       </c>
-      <c r="Q133" t="n">
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
         <v>58</v>
       </c>
-      <c r="R133" t="n">
-        <v>3</v>
-      </c>
       <c r="S133" t="n">
+        <v>3</v>
+      </c>
+      <c r="T133" t="n">
         <v>5</v>
       </c>
-      <c r="T133" t="n">
+      <c r="U133" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8703,16 +9368,21 @@
       <c r="P134" t="n">
         <v>7</v>
       </c>
-      <c r="Q134" t="n">
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
         <v>58</v>
       </c>
-      <c r="R134" t="n">
-        <v>2</v>
-      </c>
       <c r="S134" t="n">
+        <v>2</v>
+      </c>
+      <c r="T134" t="n">
         <v>5</v>
       </c>
-      <c r="T134" t="n">
+      <c r="U134" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8763,16 +9433,21 @@
       <c r="P135" t="n">
         <v>7</v>
       </c>
-      <c r="Q135" t="n">
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
         <v>58</v>
       </c>
-      <c r="R135" t="n">
-        <v>1</v>
-      </c>
       <c r="S135" t="n">
+        <v>1</v>
+      </c>
+      <c r="T135" t="n">
         <v>5</v>
       </c>
-      <c r="T135" t="n">
+      <c r="U135" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8831,16 +9506,21 @@
       <c r="P136" t="n">
         <v>9</v>
       </c>
-      <c r="Q136" t="n">
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
         <v>71</v>
       </c>
-      <c r="R136" t="n">
-        <v>1</v>
-      </c>
       <c r="S136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T136" t="n">
+        <v>3</v>
+      </c>
+      <c r="U136" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8899,16 +9579,21 @@
       <c r="P137" t="n">
         <v>9</v>
       </c>
-      <c r="Q137" t="n">
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
         <v>70</v>
       </c>
-      <c r="R137" t="n">
-        <v>2</v>
-      </c>
       <c r="S137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T137" t="n">
+        <v>3</v>
+      </c>
+      <c r="U137" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8957,16 +9642,21 @@
       <c r="P138" t="n">
         <v>9</v>
       </c>
-      <c r="Q138" t="n">
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
         <v>70</v>
       </c>
-      <c r="R138" t="n">
-        <v>1</v>
-      </c>
       <c r="S138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T138" t="n">
+        <v>3</v>
+      </c>
+      <c r="U138" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9025,16 +9715,21 @@
       <c r="P139" t="n">
         <v>9</v>
       </c>
-      <c r="Q139" t="n">
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
         <v>69</v>
       </c>
-      <c r="R139" t="n">
+      <c r="S139" t="n">
         <v>7</v>
       </c>
-      <c r="S139" t="n">
-        <v>3</v>
-      </c>
       <c r="T139" t="n">
+        <v>3</v>
+      </c>
+      <c r="U139" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9083,16 +9778,21 @@
       <c r="P140" t="n">
         <v>9</v>
       </c>
-      <c r="Q140" t="n">
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
         <v>69</v>
       </c>
-      <c r="R140" t="n">
+      <c r="S140" t="n">
         <v>6</v>
       </c>
-      <c r="S140" t="n">
-        <v>3</v>
-      </c>
       <c r="T140" t="n">
+        <v>3</v>
+      </c>
+      <c r="U140" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9141,16 +9841,21 @@
       <c r="P141" t="n">
         <v>9</v>
       </c>
-      <c r="Q141" t="n">
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
         <v>69</v>
       </c>
-      <c r="R141" t="n">
+      <c r="S141" t="n">
         <v>5</v>
       </c>
-      <c r="S141" t="n">
-        <v>3</v>
-      </c>
       <c r="T141" t="n">
+        <v>3</v>
+      </c>
+      <c r="U141" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9199,16 +9904,21 @@
       <c r="P142" t="n">
         <v>9</v>
       </c>
-      <c r="Q142" t="n">
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
         <v>69</v>
       </c>
-      <c r="R142" t="n">
+      <c r="S142" t="n">
         <v>4</v>
       </c>
-      <c r="S142" t="n">
-        <v>3</v>
-      </c>
       <c r="T142" t="n">
+        <v>3</v>
+      </c>
+      <c r="U142" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9257,16 +9967,21 @@
       <c r="P143" t="n">
         <v>9</v>
       </c>
-      <c r="Q143" t="n">
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
         <v>69</v>
       </c>
-      <c r="R143" t="n">
-        <v>3</v>
-      </c>
       <c r="S143" t="n">
         <v>3</v>
       </c>
       <c r="T143" t="n">
+        <v>3</v>
+      </c>
+      <c r="U143" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9315,16 +10030,21 @@
       <c r="P144" t="n">
         <v>9</v>
       </c>
-      <c r="Q144" t="n">
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
         <v>69</v>
       </c>
-      <c r="R144" t="n">
-        <v>2</v>
-      </c>
       <c r="S144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T144" t="n">
+        <v>3</v>
+      </c>
+      <c r="U144" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9373,16 +10093,21 @@
       <c r="P145" t="n">
         <v>9</v>
       </c>
-      <c r="Q145" t="n">
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
         <v>69</v>
       </c>
-      <c r="R145" t="n">
-        <v>1</v>
-      </c>
       <c r="S145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T145" t="n">
+        <v>3</v>
+      </c>
+      <c r="U145" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9431,16 +10156,21 @@
       <c r="P146" t="n">
         <v>9</v>
       </c>
-      <c r="Q146" t="n">
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
         <v>69</v>
       </c>
-      <c r="R146" t="n">
-        <v>1</v>
-      </c>
       <c r="S146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T146" t="n">
+        <v>3</v>
+      </c>
+      <c r="U146" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9495,16 +10225,21 @@
       <c r="P147" t="n">
         <v>8</v>
       </c>
-      <c r="Q147" t="n">
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
         <v>68</v>
       </c>
-      <c r="R147" t="n">
+      <c r="S147" t="n">
         <v>6</v>
       </c>
-      <c r="S147" t="n">
+      <c r="T147" t="n">
         <v>5</v>
       </c>
-      <c r="T147" t="n">
+      <c r="U147" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9555,16 +10290,21 @@
       <c r="P148" t="n">
         <v>8</v>
       </c>
-      <c r="Q148" t="n">
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
         <v>68</v>
-      </c>
-      <c r="R148" t="n">
-        <v>5</v>
       </c>
       <c r="S148" t="n">
         <v>5</v>
       </c>
       <c r="T148" t="n">
+        <v>5</v>
+      </c>
+      <c r="U148" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9615,16 +10355,21 @@
       <c r="P149" t="n">
         <v>8</v>
       </c>
-      <c r="Q149" t="n">
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
         <v>68</v>
       </c>
-      <c r="R149" t="n">
+      <c r="S149" t="n">
         <v>4</v>
       </c>
-      <c r="S149" t="n">
+      <c r="T149" t="n">
         <v>5</v>
       </c>
-      <c r="T149" t="n">
+      <c r="U149" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9675,16 +10420,21 @@
       <c r="P150" t="n">
         <v>8</v>
       </c>
-      <c r="Q150" t="n">
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
         <v>68</v>
       </c>
-      <c r="R150" t="n">
-        <v>3</v>
-      </c>
       <c r="S150" t="n">
+        <v>3</v>
+      </c>
+      <c r="T150" t="n">
         <v>5</v>
       </c>
-      <c r="T150" t="n">
+      <c r="U150" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9735,16 +10485,21 @@
       <c r="P151" t="n">
         <v>8</v>
       </c>
-      <c r="Q151" t="n">
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
         <v>68</v>
       </c>
-      <c r="R151" t="n">
-        <v>3</v>
-      </c>
       <c r="S151" t="n">
+        <v>3</v>
+      </c>
+      <c r="T151" t="n">
         <v>5</v>
       </c>
-      <c r="T151" t="n">
+      <c r="U151" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9795,16 +10550,21 @@
       <c r="P152" t="n">
         <v>8</v>
       </c>
-      <c r="Q152" t="n">
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
         <v>68</v>
       </c>
-      <c r="R152" t="n">
-        <v>2</v>
-      </c>
       <c r="S152" t="n">
+        <v>2</v>
+      </c>
+      <c r="T152" t="n">
         <v>5</v>
       </c>
-      <c r="T152" t="n">
+      <c r="U152" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9855,16 +10615,21 @@
       <c r="P153" t="n">
         <v>8</v>
       </c>
-      <c r="Q153" t="n">
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
         <v>68</v>
       </c>
-      <c r="R153" t="n">
-        <v>1</v>
-      </c>
       <c r="S153" t="n">
+        <v>1</v>
+      </c>
+      <c r="T153" t="n">
         <v>5</v>
       </c>
-      <c r="T153" t="n">
+      <c r="U153" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9925,16 +10690,21 @@
       <c r="P154" t="n">
         <v>8</v>
       </c>
-      <c r="Q154" t="n">
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
         <v>67</v>
-      </c>
-      <c r="R154" t="n">
-        <v>5</v>
       </c>
       <c r="S154" t="n">
         <v>5</v>
       </c>
       <c r="T154" t="n">
+        <v>5</v>
+      </c>
+      <c r="U154" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9985,16 +10755,21 @@
       <c r="P155" t="n">
         <v>8</v>
       </c>
-      <c r="Q155" t="n">
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
         <v>67</v>
       </c>
-      <c r="R155" t="n">
+      <c r="S155" t="n">
         <v>4</v>
       </c>
-      <c r="S155" t="n">
+      <c r="T155" t="n">
         <v>5</v>
       </c>
-      <c r="T155" t="n">
+      <c r="U155" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10045,16 +10820,21 @@
       <c r="P156" t="n">
         <v>8</v>
       </c>
-      <c r="Q156" t="n">
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
         <v>67</v>
       </c>
-      <c r="R156" t="n">
-        <v>3</v>
-      </c>
       <c r="S156" t="n">
+        <v>3</v>
+      </c>
+      <c r="T156" t="n">
         <v>5</v>
       </c>
-      <c r="T156" t="n">
+      <c r="U156" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10105,16 +10885,21 @@
       <c r="P157" t="n">
         <v>8</v>
       </c>
-      <c r="Q157" t="n">
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
         <v>67</v>
       </c>
-      <c r="R157" t="n">
-        <v>2</v>
-      </c>
       <c r="S157" t="n">
+        <v>2</v>
+      </c>
+      <c r="T157" t="n">
         <v>5</v>
       </c>
-      <c r="T157" t="n">
+      <c r="U157" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10165,16 +10950,21 @@
       <c r="P158" t="n">
         <v>8</v>
       </c>
-      <c r="Q158" t="n">
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
         <v>67</v>
       </c>
-      <c r="R158" t="n">
-        <v>1</v>
-      </c>
       <c r="S158" t="n">
+        <v>1</v>
+      </c>
+      <c r="T158" t="n">
         <v>5</v>
       </c>
-      <c r="T158" t="n">
+      <c r="U158" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10233,16 +11023,21 @@
       <c r="P159" t="n">
         <v>8</v>
       </c>
-      <c r="Q159" t="n">
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
         <v>66</v>
       </c>
-      <c r="R159" t="n">
-        <v>1</v>
-      </c>
       <c r="S159" t="n">
+        <v>1</v>
+      </c>
+      <c r="T159" t="n">
         <v>5</v>
       </c>
-      <c r="T159" t="n">
+      <c r="U159" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10297,16 +11092,21 @@
       <c r="P160" t="n">
         <v>9</v>
       </c>
-      <c r="Q160" t="n">
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
         <v>67</v>
       </c>
-      <c r="R160" t="n">
+      <c r="S160" t="n">
         <v>6</v>
       </c>
-      <c r="S160" t="n">
-        <v>2</v>
-      </c>
       <c r="T160" t="n">
+        <v>2</v>
+      </c>
+      <c r="U160" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10355,16 +11155,21 @@
       <c r="P161" t="n">
         <v>9</v>
       </c>
-      <c r="Q161" t="n">
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
         <v>67</v>
       </c>
-      <c r="R161" t="n">
+      <c r="S161" t="n">
         <v>5</v>
       </c>
-      <c r="S161" t="n">
-        <v>2</v>
-      </c>
       <c r="T161" t="n">
+        <v>2</v>
+      </c>
+      <c r="U161" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10413,16 +11218,21 @@
       <c r="P162" t="n">
         <v>9</v>
       </c>
-      <c r="Q162" t="n">
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
         <v>67</v>
       </c>
-      <c r="R162" t="n">
+      <c r="S162" t="n">
         <v>4</v>
       </c>
-      <c r="S162" t="n">
-        <v>2</v>
-      </c>
       <c r="T162" t="n">
+        <v>2</v>
+      </c>
+      <c r="U162" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10471,16 +11281,21 @@
       <c r="P163" t="n">
         <v>9</v>
       </c>
-      <c r="Q163" t="n">
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
         <v>67</v>
       </c>
-      <c r="R163" t="n">
-        <v>3</v>
-      </c>
       <c r="S163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T163" t="n">
+        <v>2</v>
+      </c>
+      <c r="U163" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10529,16 +11344,21 @@
       <c r="P164" t="n">
         <v>9</v>
       </c>
-      <c r="Q164" t="n">
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
         <v>67</v>
       </c>
-      <c r="R164" t="n">
-        <v>2</v>
-      </c>
       <c r="S164" t="n">
         <v>2</v>
       </c>
       <c r="T164" t="n">
+        <v>2</v>
+      </c>
+      <c r="U164" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10587,16 +11407,21 @@
       <c r="P165" t="n">
         <v>9</v>
       </c>
-      <c r="Q165" t="n">
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
         <v>67</v>
       </c>
-      <c r="R165" t="n">
-        <v>1</v>
-      </c>
       <c r="S165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T165" t="n">
+        <v>2</v>
+      </c>
+      <c r="U165" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10655,16 +11480,21 @@
       <c r="P166" t="n">
         <v>9</v>
       </c>
-      <c r="Q166" t="n">
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
         <v>66</v>
       </c>
-      <c r="R166" t="n">
+      <c r="S166" t="n">
         <v>4</v>
       </c>
-      <c r="S166" t="n">
-        <v>2</v>
-      </c>
       <c r="T166" t="n">
+        <v>2</v>
+      </c>
+      <c r="U166" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10713,16 +11543,21 @@
       <c r="P167" t="n">
         <v>9</v>
       </c>
-      <c r="Q167" t="n">
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
         <v>66</v>
       </c>
-      <c r="R167" t="n">
-        <v>3</v>
-      </c>
       <c r="S167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T167" t="n">
+        <v>2</v>
+      </c>
+      <c r="U167" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10771,16 +11606,21 @@
       <c r="P168" t="n">
         <v>9</v>
       </c>
-      <c r="Q168" t="n">
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
         <v>66</v>
       </c>
-      <c r="R168" t="n">
-        <v>2</v>
-      </c>
       <c r="S168" t="n">
         <v>2</v>
       </c>
       <c r="T168" t="n">
+        <v>2</v>
+      </c>
+      <c r="U168" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10829,16 +11669,21 @@
       <c r="P169" t="n">
         <v>9</v>
       </c>
-      <c r="Q169" t="n">
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
         <v>66</v>
       </c>
-      <c r="R169" t="n">
-        <v>1</v>
-      </c>
       <c r="S169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T169" t="n">
+        <v>2</v>
+      </c>
+      <c r="U169" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10897,16 +11742,21 @@
       <c r="P170" t="n">
         <v>9</v>
       </c>
-      <c r="Q170" t="n">
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
         <v>65</v>
       </c>
-      <c r="R170" t="n">
+      <c r="S170" t="n">
         <v>4</v>
       </c>
-      <c r="S170" t="n">
-        <v>2</v>
-      </c>
       <c r="T170" t="n">
+        <v>2</v>
+      </c>
+      <c r="U170" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10955,16 +11805,21 @@
       <c r="P171" t="n">
         <v>9</v>
       </c>
-      <c r="Q171" t="n">
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
         <v>65</v>
       </c>
-      <c r="R171" t="n">
-        <v>3</v>
-      </c>
       <c r="S171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T171" t="n">
+        <v>2</v>
+      </c>
+      <c r="U171" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11013,16 +11868,21 @@
       <c r="P172" t="n">
         <v>9</v>
       </c>
-      <c r="Q172" t="n">
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
         <v>65</v>
       </c>
-      <c r="R172" t="n">
-        <v>2</v>
-      </c>
       <c r="S172" t="n">
         <v>2</v>
       </c>
       <c r="T172" t="n">
+        <v>2</v>
+      </c>
+      <c r="U172" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11071,16 +11931,21 @@
       <c r="P173" t="n">
         <v>9</v>
       </c>
-      <c r="Q173" t="n">
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
         <v>65</v>
       </c>
-      <c r="R173" t="n">
-        <v>1</v>
-      </c>
       <c r="S173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T173" t="n">
+        <v>2</v>
+      </c>
+      <c r="U173" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11139,16 +12004,21 @@
       <c r="P174" t="n">
         <v>8</v>
       </c>
-      <c r="Q174" t="n">
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
         <v>66</v>
       </c>
-      <c r="R174" t="n">
-        <v>3</v>
-      </c>
       <c r="S174" t="n">
+        <v>3</v>
+      </c>
+      <c r="T174" t="n">
         <v>4</v>
       </c>
-      <c r="T174" t="n">
+      <c r="U174" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11197,16 +12067,21 @@
       <c r="P175" t="n">
         <v>8</v>
       </c>
-      <c r="Q175" t="n">
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
         <v>66</v>
       </c>
-      <c r="R175" t="n">
-        <v>2</v>
-      </c>
       <c r="S175" t="n">
+        <v>2</v>
+      </c>
+      <c r="T175" t="n">
         <v>4</v>
       </c>
-      <c r="T175" t="n">
+      <c r="U175" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11255,16 +12130,21 @@
       <c r="P176" t="n">
         <v>8</v>
       </c>
-      <c r="Q176" t="n">
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
         <v>66</v>
       </c>
-      <c r="R176" t="n">
-        <v>1</v>
-      </c>
       <c r="S176" t="n">
+        <v>1</v>
+      </c>
+      <c r="T176" t="n">
         <v>4</v>
       </c>
-      <c r="T176" t="n">
+      <c r="U176" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11323,16 +12203,21 @@
       <c r="P177" t="n">
         <v>8</v>
       </c>
-      <c r="Q177" t="n">
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
         <v>65</v>
       </c>
-      <c r="R177" t="n">
-        <v>3</v>
-      </c>
       <c r="S177" t="n">
+        <v>3</v>
+      </c>
+      <c r="T177" t="n">
         <v>4</v>
       </c>
-      <c r="T177" t="n">
+      <c r="U177" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11381,16 +12266,21 @@
       <c r="P178" t="n">
         <v>8</v>
       </c>
-      <c r="Q178" t="n">
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
         <v>65</v>
       </c>
-      <c r="R178" t="n">
-        <v>2</v>
-      </c>
       <c r="S178" t="n">
+        <v>2</v>
+      </c>
+      <c r="T178" t="n">
         <v>4</v>
       </c>
-      <c r="T178" t="n">
+      <c r="U178" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11439,16 +12329,21 @@
       <c r="P179" t="n">
         <v>8</v>
       </c>
-      <c r="Q179" t="n">
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
         <v>65</v>
       </c>
-      <c r="R179" t="n">
-        <v>1</v>
-      </c>
       <c r="S179" t="n">
+        <v>1</v>
+      </c>
+      <c r="T179" t="n">
         <v>4</v>
       </c>
-      <c r="T179" t="n">
+      <c r="U179" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11503,16 +12398,21 @@
       <c r="P180" t="n">
         <v>8</v>
       </c>
-      <c r="Q180" t="n">
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
         <v>64</v>
-      </c>
-      <c r="R180" t="n">
-        <v>4</v>
       </c>
       <c r="S180" t="n">
         <v>4</v>
       </c>
       <c r="T180" t="n">
+        <v>4</v>
+      </c>
+      <c r="U180" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11561,16 +12461,21 @@
       <c r="P181" t="n">
         <v>8</v>
       </c>
-      <c r="Q181" t="n">
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
         <v>64</v>
       </c>
-      <c r="R181" t="n">
-        <v>3</v>
-      </c>
       <c r="S181" t="n">
+        <v>3</v>
+      </c>
+      <c r="T181" t="n">
         <v>4</v>
       </c>
-      <c r="T181" t="n">
+      <c r="U181" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11619,16 +12524,21 @@
       <c r="P182" t="n">
         <v>8</v>
       </c>
-      <c r="Q182" t="n">
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
         <v>64</v>
       </c>
-      <c r="R182" t="n">
-        <v>2</v>
-      </c>
       <c r="S182" t="n">
+        <v>2</v>
+      </c>
+      <c r="T182" t="n">
         <v>4</v>
       </c>
-      <c r="T182" t="n">
+      <c r="U182" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11677,16 +12587,21 @@
       <c r="P183" t="n">
         <v>8</v>
       </c>
-      <c r="Q183" t="n">
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
         <v>64</v>
       </c>
-      <c r="R183" t="n">
-        <v>1</v>
-      </c>
       <c r="S183" t="n">
+        <v>1</v>
+      </c>
+      <c r="T183" t="n">
         <v>4</v>
       </c>
-      <c r="T183" t="n">
+      <c r="U183" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11747,16 +12662,21 @@
       <c r="P184" t="n">
         <v>8</v>
       </c>
-      <c r="Q184" t="n">
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
         <v>58</v>
       </c>
-      <c r="R184" t="n">
-        <v>3</v>
-      </c>
       <c r="S184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T184" t="n">
+        <v>2</v>
+      </c>
+      <c r="U184" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11807,16 +12727,21 @@
       <c r="P185" t="n">
         <v>8</v>
       </c>
-      <c r="Q185" t="n">
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
         <v>58</v>
       </c>
-      <c r="R185" t="n">
-        <v>2</v>
-      </c>
       <c r="S185" t="n">
         <v>2</v>
       </c>
       <c r="T185" t="n">
+        <v>2</v>
+      </c>
+      <c r="U185" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11867,16 +12792,21 @@
       <c r="P186" t="n">
         <v>8</v>
       </c>
-      <c r="Q186" t="n">
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
         <v>58</v>
       </c>
-      <c r="R186" t="n">
-        <v>1</v>
-      </c>
       <c r="S186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T186" t="n">
+        <v>2</v>
+      </c>
+      <c r="U186" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11935,16 +12865,21 @@
       <c r="P187" t="n">
         <v>8</v>
       </c>
-      <c r="Q187" t="n">
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
         <v>57</v>
       </c>
-      <c r="R187" t="n">
-        <v>1</v>
-      </c>
       <c r="S187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T187" t="n">
+        <v>2</v>
+      </c>
+      <c r="U187" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12007,16 +12942,21 @@
       <c r="P188" t="n">
         <v>7</v>
       </c>
-      <c r="Q188" t="n">
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
         <v>52</v>
       </c>
-      <c r="R188" t="n">
-        <v>2</v>
-      </c>
       <c r="S188" t="n">
         <v>2</v>
       </c>
       <c r="T188" t="n">
+        <v>2</v>
+      </c>
+      <c r="U188" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12069,16 +13009,21 @@
       <c r="P189" t="n">
         <v>7</v>
       </c>
-      <c r="Q189" t="n">
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
         <v>52</v>
       </c>
-      <c r="R189" t="n">
-        <v>1</v>
-      </c>
       <c r="S189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T189" t="n">
+        <v>2</v>
+      </c>
+      <c r="U189" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12139,16 +13084,21 @@
       <c r="P190" t="n">
         <v>7</v>
       </c>
-      <c r="Q190" t="n">
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
         <v>59</v>
       </c>
-      <c r="R190" t="n">
+      <c r="S190" t="n">
         <v>5</v>
       </c>
-      <c r="S190" t="n">
-        <v>3</v>
-      </c>
       <c r="T190" t="n">
+        <v>3</v>
+      </c>
+      <c r="U190" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12199,16 +13149,21 @@
       <c r="P191" t="n">
         <v>7</v>
       </c>
-      <c r="Q191" t="n">
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
         <v>59</v>
       </c>
-      <c r="R191" t="n">
+      <c r="S191" t="n">
         <v>4</v>
       </c>
-      <c r="S191" t="n">
-        <v>3</v>
-      </c>
       <c r="T191" t="n">
+        <v>3</v>
+      </c>
+      <c r="U191" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12259,16 +13214,21 @@
       <c r="P192" t="n">
         <v>7</v>
       </c>
-      <c r="Q192" t="n">
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
         <v>59</v>
       </c>
-      <c r="R192" t="n">
-        <v>3</v>
-      </c>
       <c r="S192" t="n">
         <v>3</v>
       </c>
       <c r="T192" t="n">
+        <v>3</v>
+      </c>
+      <c r="U192" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12319,16 +13279,21 @@
       <c r="P193" t="n">
         <v>7</v>
       </c>
-      <c r="Q193" t="n">
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
         <v>59</v>
       </c>
-      <c r="R193" t="n">
-        <v>2</v>
-      </c>
       <c r="S193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T193" t="n">
+        <v>3</v>
+      </c>
+      <c r="U193" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12379,16 +13344,21 @@
       <c r="P194" t="n">
         <v>7</v>
       </c>
-      <c r="Q194" t="n">
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
         <v>59</v>
       </c>
-      <c r="R194" t="n">
-        <v>1</v>
-      </c>
       <c r="S194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T194" t="n">
+        <v>3</v>
+      </c>
+      <c r="U194" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12449,16 +13419,21 @@
       <c r="P195" t="n">
         <v>9</v>
       </c>
-      <c r="Q195" t="n">
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
         <v>69</v>
       </c>
-      <c r="R195" t="n">
-        <v>2</v>
-      </c>
       <c r="S195" t="n">
+        <v>2</v>
+      </c>
+      <c r="T195" t="n">
         <v>7</v>
       </c>
-      <c r="T195" t="n">
+      <c r="U195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12509,16 +13484,21 @@
       <c r="P196" t="n">
         <v>9</v>
       </c>
-      <c r="Q196" t="n">
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
         <v>69</v>
       </c>
-      <c r="R196" t="n">
-        <v>1</v>
-      </c>
       <c r="S196" t="n">
+        <v>1</v>
+      </c>
+      <c r="T196" t="n">
         <v>7</v>
       </c>
-      <c r="T196" t="n">
+      <c r="U196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12575,16 +13555,21 @@
       <c r="P197" t="n">
         <v>9</v>
       </c>
-      <c r="Q197" t="n">
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
         <v>68</v>
       </c>
-      <c r="R197" t="n">
+      <c r="S197" t="n">
         <v>6</v>
       </c>
-      <c r="S197" t="n">
+      <c r="T197" t="n">
         <v>7</v>
       </c>
-      <c r="T197" t="n">
+      <c r="U197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12635,16 +13620,21 @@
       <c r="P198" t="n">
         <v>9</v>
       </c>
-      <c r="Q198" t="n">
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
         <v>68</v>
       </c>
-      <c r="R198" t="n">
+      <c r="S198" t="n">
         <v>5</v>
       </c>
-      <c r="S198" t="n">
+      <c r="T198" t="n">
         <v>7</v>
       </c>
-      <c r="T198" t="n">
+      <c r="U198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12695,16 +13685,21 @@
       <c r="P199" t="n">
         <v>9</v>
       </c>
-      <c r="Q199" t="n">
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
         <v>68</v>
       </c>
-      <c r="R199" t="n">
+      <c r="S199" t="n">
         <v>4</v>
       </c>
-      <c r="S199" t="n">
+      <c r="T199" t="n">
         <v>7</v>
       </c>
-      <c r="T199" t="n">
+      <c r="U199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12755,16 +13750,21 @@
       <c r="P200" t="n">
         <v>9</v>
       </c>
-      <c r="Q200" t="n">
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
         <v>68</v>
       </c>
-      <c r="R200" t="n">
-        <v>3</v>
-      </c>
       <c r="S200" t="n">
+        <v>3</v>
+      </c>
+      <c r="T200" t="n">
         <v>7</v>
       </c>
-      <c r="T200" t="n">
+      <c r="U200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12815,16 +13815,21 @@
       <c r="P201" t="n">
         <v>9</v>
       </c>
-      <c r="Q201" t="n">
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
         <v>68</v>
       </c>
-      <c r="R201" t="n">
-        <v>2</v>
-      </c>
       <c r="S201" t="n">
+        <v>2</v>
+      </c>
+      <c r="T201" t="n">
         <v>7</v>
       </c>
-      <c r="T201" t="n">
+      <c r="U201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12875,16 +13880,21 @@
       <c r="P202" t="n">
         <v>9</v>
       </c>
-      <c r="Q202" t="n">
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
         <v>68</v>
       </c>
-      <c r="R202" t="n">
-        <v>1</v>
-      </c>
       <c r="S202" t="n">
+        <v>1</v>
+      </c>
+      <c r="T202" t="n">
         <v>7</v>
       </c>
-      <c r="T202" t="n">
+      <c r="U202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12943,16 +13953,21 @@
       <c r="P203" t="n">
         <v>9</v>
       </c>
-      <c r="Q203" t="n">
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
         <v>67</v>
       </c>
-      <c r="R203" t="n">
+      <c r="S203" t="n">
         <v>5</v>
       </c>
-      <c r="S203" t="n">
+      <c r="T203" t="n">
         <v>7</v>
       </c>
-      <c r="T203" t="n">
+      <c r="U203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13001,16 +14016,21 @@
       <c r="P204" t="n">
         <v>9</v>
       </c>
-      <c r="Q204" t="n">
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
         <v>67</v>
       </c>
-      <c r="R204" t="n">
+      <c r="S204" t="n">
         <v>4</v>
       </c>
-      <c r="S204" t="n">
+      <c r="T204" t="n">
         <v>7</v>
       </c>
-      <c r="T204" t="n">
+      <c r="U204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13059,16 +14079,21 @@
       <c r="P205" t="n">
         <v>9</v>
       </c>
-      <c r="Q205" t="n">
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
         <v>67</v>
       </c>
-      <c r="R205" t="n">
-        <v>3</v>
-      </c>
       <c r="S205" t="n">
+        <v>3</v>
+      </c>
+      <c r="T205" t="n">
         <v>7</v>
       </c>
-      <c r="T205" t="n">
+      <c r="U205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13117,16 +14142,21 @@
       <c r="P206" t="n">
         <v>9</v>
       </c>
-      <c r="Q206" t="n">
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
         <v>67</v>
       </c>
-      <c r="R206" t="n">
-        <v>2</v>
-      </c>
       <c r="S206" t="n">
+        <v>2</v>
+      </c>
+      <c r="T206" t="n">
         <v>7</v>
       </c>
-      <c r="T206" t="n">
+      <c r="U206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13175,16 +14205,21 @@
       <c r="P207" t="n">
         <v>9</v>
       </c>
-      <c r="Q207" t="n">
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
         <v>67</v>
       </c>
-      <c r="R207" t="n">
-        <v>1</v>
-      </c>
       <c r="S207" t="n">
+        <v>1</v>
+      </c>
+      <c r="T207" t="n">
         <v>7</v>
       </c>
-      <c r="T207" t="n">
+      <c r="U207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13245,16 +14280,21 @@
       <c r="P208" t="n">
         <v>9</v>
       </c>
-      <c r="Q208" t="n">
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
         <v>80</v>
       </c>
-      <c r="R208" t="n">
-        <v>3</v>
-      </c>
       <c r="S208" t="n">
+        <v>3</v>
+      </c>
+      <c r="T208" t="n">
         <v>9</v>
       </c>
-      <c r="T208" t="n">
+      <c r="U208" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13305,16 +14345,21 @@
       <c r="P209" t="n">
         <v>9</v>
       </c>
-      <c r="Q209" t="n">
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
         <v>80</v>
       </c>
-      <c r="R209" t="n">
-        <v>2</v>
-      </c>
       <c r="S209" t="n">
+        <v>2</v>
+      </c>
+      <c r="T209" t="n">
         <v>9</v>
       </c>
-      <c r="T209" t="n">
+      <c r="U209" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13365,16 +14410,21 @@
       <c r="P210" t="n">
         <v>9</v>
       </c>
-      <c r="Q210" t="n">
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
         <v>80</v>
       </c>
-      <c r="R210" t="n">
-        <v>1</v>
-      </c>
       <c r="S210" t="n">
+        <v>1</v>
+      </c>
+      <c r="T210" t="n">
         <v>9</v>
       </c>
-      <c r="T210" t="n">
+      <c r="U210" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13433,16 +14483,21 @@
       <c r="P211" t="n">
         <v>9</v>
       </c>
-      <c r="Q211" t="n">
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
         <v>79</v>
       </c>
-      <c r="R211" t="n">
-        <v>2</v>
-      </c>
       <c r="S211" t="n">
+        <v>2</v>
+      </c>
+      <c r="T211" t="n">
         <v>9</v>
       </c>
-      <c r="T211" t="n">
+      <c r="U211" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13491,16 +14546,21 @@
       <c r="P212" t="n">
         <v>9</v>
       </c>
-      <c r="Q212" t="n">
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
         <v>79</v>
       </c>
-      <c r="R212" t="n">
-        <v>1</v>
-      </c>
       <c r="S212" t="n">
+        <v>1</v>
+      </c>
+      <c r="T212" t="n">
         <v>9</v>
       </c>
-      <c r="T212" t="n">
+      <c r="U212" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13559,16 +14619,21 @@
       <c r="P213" t="n">
         <v>9</v>
       </c>
-      <c r="Q213" t="n">
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
         <v>78</v>
       </c>
-      <c r="R213" t="n">
+      <c r="S213" t="n">
         <v>6</v>
       </c>
-      <c r="S213" t="n">
+      <c r="T213" t="n">
         <v>9</v>
       </c>
-      <c r="T213" t="n">
+      <c r="U213" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13619,16 +14684,21 @@
       <c r="P214" t="n">
         <v>9</v>
       </c>
-      <c r="Q214" t="n">
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
         <v>78</v>
       </c>
-      <c r="R214" t="n">
+      <c r="S214" t="n">
         <v>5</v>
       </c>
-      <c r="S214" t="n">
+      <c r="T214" t="n">
         <v>9</v>
       </c>
-      <c r="T214" t="n">
+      <c r="U214" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13679,16 +14749,21 @@
       <c r="P215" t="n">
         <v>9</v>
       </c>
-      <c r="Q215" t="n">
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
         <v>78</v>
       </c>
-      <c r="R215" t="n">
+      <c r="S215" t="n">
         <v>4</v>
       </c>
-      <c r="S215" t="n">
+      <c r="T215" t="n">
         <v>9</v>
       </c>
-      <c r="T215" t="n">
+      <c r="U215" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13739,16 +14814,21 @@
       <c r="P216" t="n">
         <v>9</v>
       </c>
-      <c r="Q216" t="n">
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
         <v>78</v>
       </c>
-      <c r="R216" t="n">
-        <v>3</v>
-      </c>
       <c r="S216" t="n">
+        <v>3</v>
+      </c>
+      <c r="T216" t="n">
         <v>9</v>
       </c>
-      <c r="T216" t="n">
+      <c r="U216" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13799,16 +14879,21 @@
       <c r="P217" t="n">
         <v>9</v>
       </c>
-      <c r="Q217" t="n">
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
         <v>78</v>
       </c>
-      <c r="R217" t="n">
-        <v>2</v>
-      </c>
       <c r="S217" t="n">
+        <v>2</v>
+      </c>
+      <c r="T217" t="n">
         <v>9</v>
       </c>
-      <c r="T217" t="n">
+      <c r="U217" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13859,16 +14944,21 @@
       <c r="P218" t="n">
         <v>9</v>
       </c>
-      <c r="Q218" t="n">
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
         <v>78</v>
       </c>
-      <c r="R218" t="n">
-        <v>1</v>
-      </c>
       <c r="S218" t="n">
+        <v>1</v>
+      </c>
+      <c r="T218" t="n">
         <v>9</v>
       </c>
-      <c r="T218" t="n">
+      <c r="U218" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13929,16 +15019,21 @@
       <c r="P219" t="n">
         <v>9</v>
       </c>
-      <c r="Q219" t="n">
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
         <v>77</v>
       </c>
-      <c r="R219" t="n">
+      <c r="S219" t="n">
         <v>4</v>
       </c>
-      <c r="S219" t="n">
+      <c r="T219" t="n">
         <v>9</v>
       </c>
-      <c r="T219" t="n">
+      <c r="U219" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13989,16 +15084,21 @@
       <c r="P220" t="n">
         <v>9</v>
       </c>
-      <c r="Q220" t="n">
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
         <v>77</v>
       </c>
-      <c r="R220" t="n">
-        <v>3</v>
-      </c>
       <c r="S220" t="n">
+        <v>3</v>
+      </c>
+      <c r="T220" t="n">
         <v>9</v>
       </c>
-      <c r="T220" t="n">
+      <c r="U220" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14049,16 +15149,21 @@
       <c r="P221" t="n">
         <v>9</v>
       </c>
-      <c r="Q221" t="n">
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
         <v>77</v>
       </c>
-      <c r="R221" t="n">
-        <v>2</v>
-      </c>
       <c r="S221" t="n">
+        <v>2</v>
+      </c>
+      <c r="T221" t="n">
         <v>9</v>
       </c>
-      <c r="T221" t="n">
+      <c r="U221" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14109,16 +15214,21 @@
       <c r="P222" t="n">
         <v>9</v>
       </c>
-      <c r="Q222" t="n">
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
         <v>77</v>
       </c>
-      <c r="R222" t="n">
-        <v>1</v>
-      </c>
       <c r="S222" t="n">
+        <v>1</v>
+      </c>
+      <c r="T222" t="n">
         <v>9</v>
       </c>
-      <c r="T222" t="n">
+      <c r="U222" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14177,16 +15287,21 @@
       <c r="P223" t="n">
         <v>9</v>
       </c>
-      <c r="Q223" t="n">
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
         <v>76</v>
       </c>
-      <c r="R223" t="n">
+      <c r="S223" t="n">
         <v>4</v>
       </c>
-      <c r="S223" t="n">
+      <c r="T223" t="n">
         <v>9</v>
       </c>
-      <c r="T223" t="n">
+      <c r="U223" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14235,16 +15350,21 @@
       <c r="P224" t="n">
         <v>9</v>
       </c>
-      <c r="Q224" t="n">
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
         <v>76</v>
       </c>
-      <c r="R224" t="n">
-        <v>3</v>
-      </c>
       <c r="S224" t="n">
+        <v>3</v>
+      </c>
+      <c r="T224" t="n">
         <v>9</v>
       </c>
-      <c r="T224" t="n">
+      <c r="U224" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14293,16 +15413,21 @@
       <c r="P225" t="n">
         <v>9</v>
       </c>
-      <c r="Q225" t="n">
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
         <v>76</v>
       </c>
-      <c r="R225" t="n">
-        <v>2</v>
-      </c>
       <c r="S225" t="n">
+        <v>2</v>
+      </c>
+      <c r="T225" t="n">
         <v>9</v>
       </c>
-      <c r="T225" t="n">
+      <c r="U225" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14351,16 +15476,21 @@
       <c r="P226" t="n">
         <v>9</v>
       </c>
-      <c r="Q226" t="n">
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
         <v>76</v>
       </c>
-      <c r="R226" t="n">
-        <v>1</v>
-      </c>
       <c r="S226" t="n">
+        <v>1</v>
+      </c>
+      <c r="T226" t="n">
         <v>9</v>
       </c>
-      <c r="T226" t="n">
+      <c r="U226" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14419,16 +15549,21 @@
       <c r="P227" t="n">
         <v>9</v>
       </c>
-      <c r="Q227" t="n">
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
         <v>75</v>
       </c>
-      <c r="R227" t="n">
-        <v>2</v>
-      </c>
       <c r="S227" t="n">
+        <v>2</v>
+      </c>
+      <c r="T227" t="n">
         <v>9</v>
       </c>
-      <c r="T227" t="n">
+      <c r="U227" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14477,16 +15612,21 @@
       <c r="P228" t="n">
         <v>9</v>
       </c>
-      <c r="Q228" t="n">
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
         <v>75</v>
       </c>
-      <c r="R228" t="n">
-        <v>1</v>
-      </c>
       <c r="S228" t="n">
+        <v>1</v>
+      </c>
+      <c r="T228" t="n">
         <v>9</v>
       </c>
-      <c r="T228" t="n">
+      <c r="U228" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14545,16 +15685,21 @@
       <c r="P229" t="n">
         <v>9</v>
       </c>
-      <c r="Q229" t="n">
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
         <v>89</v>
       </c>
-      <c r="R229" t="n">
+      <c r="S229" t="n">
         <v>7</v>
       </c>
-      <c r="S229" t="n">
-        <v>3</v>
-      </c>
       <c r="T229" t="n">
+        <v>3</v>
+      </c>
+      <c r="U229" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14603,16 +15748,21 @@
       <c r="P230" t="n">
         <v>9</v>
       </c>
-      <c r="Q230" t="n">
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
         <v>89</v>
       </c>
-      <c r="R230" t="n">
+      <c r="S230" t="n">
         <v>6</v>
       </c>
-      <c r="S230" t="n">
-        <v>3</v>
-      </c>
       <c r="T230" t="n">
+        <v>3</v>
+      </c>
+      <c r="U230" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14661,16 +15811,21 @@
       <c r="P231" t="n">
         <v>9</v>
       </c>
-      <c r="Q231" t="n">
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
         <v>89</v>
       </c>
-      <c r="R231" t="n">
+      <c r="S231" t="n">
         <v>5</v>
       </c>
-      <c r="S231" t="n">
-        <v>3</v>
-      </c>
       <c r="T231" t="n">
+        <v>3</v>
+      </c>
+      <c r="U231" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14719,16 +15874,21 @@
       <c r="P232" t="n">
         <v>9</v>
       </c>
-      <c r="Q232" t="n">
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
         <v>89</v>
       </c>
-      <c r="R232" t="n">
+      <c r="S232" t="n">
         <v>4</v>
       </c>
-      <c r="S232" t="n">
-        <v>3</v>
-      </c>
       <c r="T232" t="n">
+        <v>3</v>
+      </c>
+      <c r="U232" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14777,16 +15937,21 @@
       <c r="P233" t="n">
         <v>9</v>
       </c>
-      <c r="Q233" t="n">
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
         <v>89</v>
       </c>
-      <c r="R233" t="n">
-        <v>3</v>
-      </c>
       <c r="S233" t="n">
         <v>3</v>
       </c>
       <c r="T233" t="n">
+        <v>3</v>
+      </c>
+      <c r="U233" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14835,16 +16000,21 @@
       <c r="P234" t="n">
         <v>9</v>
       </c>
-      <c r="Q234" t="n">
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
         <v>89</v>
       </c>
-      <c r="R234" t="n">
-        <v>2</v>
-      </c>
       <c r="S234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T234" t="n">
+        <v>3</v>
+      </c>
+      <c r="U234" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14893,16 +16063,21 @@
       <c r="P235" t="n">
         <v>9</v>
       </c>
-      <c r="Q235" t="n">
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
         <v>89</v>
       </c>
-      <c r="R235" t="n">
-        <v>1</v>
-      </c>
       <c r="S235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T235" t="n">
+        <v>3</v>
+      </c>
+      <c r="U235" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14961,16 +16136,21 @@
       <c r="P236" t="n">
         <v>9</v>
       </c>
-      <c r="Q236" t="n">
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
         <v>88</v>
       </c>
-      <c r="R236" t="n">
-        <v>2</v>
-      </c>
       <c r="S236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T236" t="n">
+        <v>3</v>
+      </c>
+      <c r="U236" t="n">
         <v>10</v>
       </c>
     </row>
@@ -15019,16 +16199,21 @@
       <c r="P237" t="n">
         <v>9</v>
       </c>
-      <c r="Q237" t="n">
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
         <v>88</v>
       </c>
-      <c r="R237" t="n">
-        <v>1</v>
-      </c>
       <c r="S237" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T237" t="n">
+        <v>3</v>
+      </c>
+      <c r="U237" t="n">
         <v>10</v>
       </c>
     </row>
@@ -15087,16 +16272,21 @@
       <c r="P238" t="n">
         <v>9</v>
       </c>
-      <c r="Q238" t="n">
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
         <v>87</v>
       </c>
-      <c r="R238" t="n">
-        <v>3</v>
-      </c>
       <c r="S238" t="n">
         <v>3</v>
       </c>
       <c r="T238" t="n">
+        <v>3</v>
+      </c>
+      <c r="U238" t="n">
         <v>10</v>
       </c>
     </row>
@@ -15145,16 +16335,21 @@
       <c r="P239" t="n">
         <v>9</v>
       </c>
-      <c r="Q239" t="n">
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
         <v>87</v>
       </c>
-      <c r="R239" t="n">
-        <v>2</v>
-      </c>
       <c r="S239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T239" t="n">
+        <v>3</v>
+      </c>
+      <c r="U239" t="n">
         <v>10</v>
       </c>
     </row>
@@ -15203,16 +16398,21 @@
       <c r="P240" t="n">
         <v>9</v>
       </c>
-      <c r="Q240" t="n">
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
         <v>87</v>
       </c>
-      <c r="R240" t="n">
-        <v>1</v>
-      </c>
       <c r="S240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T240" t="n">
+        <v>3</v>
+      </c>
+      <c r="U240" t="n">
         <v>10</v>
       </c>
     </row>
@@ -15273,16 +16473,21 @@
       <c r="P241" t="n">
         <v>8</v>
       </c>
-      <c r="Q241" t="n">
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R241" t="n">
         <v>80</v>
       </c>
-      <c r="R241" t="n">
+      <c r="S241" t="n">
         <v>10</v>
       </c>
-      <c r="S241" t="n">
+      <c r="T241" t="n">
         <v>8</v>
       </c>
-      <c r="T241" t="n">
+      <c r="U241" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15333,16 +16538,21 @@
       <c r="P242" t="n">
         <v>8</v>
       </c>
-      <c r="Q242" t="n">
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R242" t="n">
         <v>80</v>
       </c>
-      <c r="R242" t="n">
+      <c r="S242" t="n">
         <v>9</v>
       </c>
-      <c r="S242" t="n">
+      <c r="T242" t="n">
         <v>8</v>
       </c>
-      <c r="T242" t="n">
+      <c r="U242" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15393,16 +16603,21 @@
       <c r="P243" t="n">
         <v>8</v>
       </c>
-      <c r="Q243" t="n">
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R243" t="n">
         <v>80</v>
-      </c>
-      <c r="R243" t="n">
-        <v>8</v>
       </c>
       <c r="S243" t="n">
         <v>8</v>
       </c>
       <c r="T243" t="n">
+        <v>8</v>
+      </c>
+      <c r="U243" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15453,16 +16668,21 @@
       <c r="P244" t="n">
         <v>8</v>
       </c>
-      <c r="Q244" t="n">
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R244" t="n">
         <v>80</v>
       </c>
-      <c r="R244" t="n">
+      <c r="S244" t="n">
         <v>7</v>
       </c>
-      <c r="S244" t="n">
+      <c r="T244" t="n">
         <v>8</v>
       </c>
-      <c r="T244" t="n">
+      <c r="U244" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15513,16 +16733,21 @@
       <c r="P245" t="n">
         <v>8</v>
       </c>
-      <c r="Q245" t="n">
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R245" t="n">
         <v>80</v>
       </c>
-      <c r="R245" t="n">
+      <c r="S245" t="n">
         <v>6</v>
       </c>
-      <c r="S245" t="n">
+      <c r="T245" t="n">
         <v>8</v>
       </c>
-      <c r="T245" t="n">
+      <c r="U245" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15573,16 +16798,21 @@
       <c r="P246" t="n">
         <v>8</v>
       </c>
-      <c r="Q246" t="n">
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R246" t="n">
         <v>80</v>
       </c>
-      <c r="R246" t="n">
+      <c r="S246" t="n">
         <v>5</v>
       </c>
-      <c r="S246" t="n">
+      <c r="T246" t="n">
         <v>8</v>
       </c>
-      <c r="T246" t="n">
+      <c r="U246" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15633,16 +16863,21 @@
       <c r="P247" t="n">
         <v>8</v>
       </c>
-      <c r="Q247" t="n">
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R247" t="n">
         <v>80</v>
       </c>
-      <c r="R247" t="n">
+      <c r="S247" t="n">
         <v>4</v>
       </c>
-      <c r="S247" t="n">
+      <c r="T247" t="n">
         <v>8</v>
       </c>
-      <c r="T247" t="n">
+      <c r="U247" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15693,16 +16928,21 @@
       <c r="P248" t="n">
         <v>8</v>
       </c>
-      <c r="Q248" t="n">
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R248" t="n">
         <v>80</v>
       </c>
-      <c r="R248" t="n">
-        <v>3</v>
-      </c>
       <c r="S248" t="n">
+        <v>3</v>
+      </c>
+      <c r="T248" t="n">
         <v>8</v>
       </c>
-      <c r="T248" t="n">
+      <c r="U248" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15753,16 +16993,21 @@
       <c r="P249" t="n">
         <v>8</v>
       </c>
-      <c r="Q249" t="n">
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R249" t="n">
         <v>80</v>
       </c>
-      <c r="R249" t="n">
-        <v>2</v>
-      </c>
       <c r="S249" t="n">
+        <v>2</v>
+      </c>
+      <c r="T249" t="n">
         <v>8</v>
       </c>
-      <c r="T249" t="n">
+      <c r="U249" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15813,16 +17058,21 @@
       <c r="P250" t="n">
         <v>8</v>
       </c>
-      <c r="Q250" t="n">
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R250" t="n">
         <v>80</v>
       </c>
-      <c r="R250" t="n">
-        <v>1</v>
-      </c>
       <c r="S250" t="n">
+        <v>1</v>
+      </c>
+      <c r="T250" t="n">
         <v>8</v>
       </c>
-      <c r="T250" t="n">
+      <c r="U250" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15883,16 +17133,21 @@
       <c r="P251" t="n">
         <v>8</v>
       </c>
-      <c r="Q251" t="n">
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R251" t="n">
         <v>79</v>
       </c>
-      <c r="R251" t="n">
-        <v>2</v>
-      </c>
       <c r="S251" t="n">
+        <v>2</v>
+      </c>
+      <c r="T251" t="n">
         <v>8</v>
       </c>
-      <c r="T251" t="n">
+      <c r="U251" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15943,16 +17198,21 @@
       <c r="P252" t="n">
         <v>8</v>
       </c>
-      <c r="Q252" t="n">
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R252" t="n">
         <v>79</v>
       </c>
-      <c r="R252" t="n">
-        <v>1</v>
-      </c>
       <c r="S252" t="n">
+        <v>1</v>
+      </c>
+      <c r="T252" t="n">
         <v>8</v>
       </c>
-      <c r="T252" t="n">
+      <c r="U252" t="n">
         <v>5</v>
       </c>
     </row>
@@ -16011,16 +17271,21 @@
       <c r="P253" t="n">
         <v>8</v>
       </c>
-      <c r="Q253" t="n">
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R253" t="n">
         <v>78</v>
       </c>
-      <c r="R253" t="n">
-        <v>2</v>
-      </c>
       <c r="S253" t="n">
+        <v>2</v>
+      </c>
+      <c r="T253" t="n">
         <v>8</v>
       </c>
-      <c r="T253" t="n">
+      <c r="U253" t="n">
         <v>5</v>
       </c>
     </row>
@@ -16069,16 +17334,21 @@
       <c r="P254" t="n">
         <v>8</v>
       </c>
-      <c r="Q254" t="n">
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R254" t="n">
         <v>78</v>
       </c>
-      <c r="R254" t="n">
-        <v>1</v>
-      </c>
       <c r="S254" t="n">
+        <v>1</v>
+      </c>
+      <c r="T254" t="n">
         <v>8</v>
       </c>
-      <c r="T254" t="n">
+      <c r="U254" t="n">
         <v>5</v>
       </c>
     </row>
@@ -16137,16 +17407,21 @@
       <c r="P255" t="n">
         <v>8</v>
       </c>
-      <c r="Q255" t="n">
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R255" t="n">
         <v>77</v>
       </c>
-      <c r="R255" t="n">
-        <v>2</v>
-      </c>
       <c r="S255" t="n">
+        <v>2</v>
+      </c>
+      <c r="T255" t="n">
         <v>8</v>
       </c>
-      <c r="T255" t="n">
+      <c r="U255" t="n">
         <v>5</v>
       </c>
     </row>
@@ -16195,16 +17470,21 @@
       <c r="P256" t="n">
         <v>8</v>
       </c>
-      <c r="Q256" t="n">
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R256" t="n">
         <v>77</v>
       </c>
-      <c r="R256" t="n">
-        <v>1</v>
-      </c>
       <c r="S256" t="n">
+        <v>1</v>
+      </c>
+      <c r="T256" t="n">
         <v>8</v>
       </c>
-      <c r="T256" t="n">
+      <c r="U256" t="n">
         <v>5</v>
       </c>
     </row>
@@ -16265,16 +17545,21 @@
       <c r="P257" t="n">
         <v>7</v>
       </c>
-      <c r="Q257" t="n">
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R257" t="n">
         <v>71</v>
       </c>
-      <c r="R257" t="n">
+      <c r="S257" t="n">
         <v>6</v>
       </c>
-      <c r="S257" t="n">
+      <c r="T257" t="n">
         <v>8</v>
       </c>
-      <c r="T257" t="n">
+      <c r="U257" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16325,16 +17610,21 @@
       <c r="P258" t="n">
         <v>7</v>
       </c>
-      <c r="Q258" t="n">
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R258" t="n">
         <v>71</v>
       </c>
-      <c r="R258" t="n">
+      <c r="S258" t="n">
         <v>5</v>
       </c>
-      <c r="S258" t="n">
+      <c r="T258" t="n">
         <v>8</v>
       </c>
-      <c r="T258" t="n">
+      <c r="U258" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16385,16 +17675,21 @@
       <c r="P259" t="n">
         <v>7</v>
       </c>
-      <c r="Q259" t="n">
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R259" t="n">
         <v>71</v>
       </c>
-      <c r="R259" t="n">
+      <c r="S259" t="n">
         <v>4</v>
       </c>
-      <c r="S259" t="n">
+      <c r="T259" t="n">
         <v>8</v>
       </c>
-      <c r="T259" t="n">
+      <c r="U259" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16445,16 +17740,21 @@
       <c r="P260" t="n">
         <v>7</v>
       </c>
-      <c r="Q260" t="n">
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R260" t="n">
         <v>71</v>
       </c>
-      <c r="R260" t="n">
-        <v>3</v>
-      </c>
       <c r="S260" t="n">
+        <v>3</v>
+      </c>
+      <c r="T260" t="n">
         <v>8</v>
       </c>
-      <c r="T260" t="n">
+      <c r="U260" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16505,16 +17805,21 @@
       <c r="P261" t="n">
         <v>7</v>
       </c>
-      <c r="Q261" t="n">
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R261" t="n">
         <v>71</v>
       </c>
-      <c r="R261" t="n">
-        <v>2</v>
-      </c>
       <c r="S261" t="n">
+        <v>2</v>
+      </c>
+      <c r="T261" t="n">
         <v>8</v>
       </c>
-      <c r="T261" t="n">
+      <c r="U261" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16565,16 +17870,21 @@
       <c r="P262" t="n">
         <v>7</v>
       </c>
-      <c r="Q262" t="n">
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R262" t="n">
         <v>71</v>
       </c>
-      <c r="R262" t="n">
-        <v>1</v>
-      </c>
       <c r="S262" t="n">
+        <v>1</v>
+      </c>
+      <c r="T262" t="n">
         <v>8</v>
       </c>
-      <c r="T262" t="n">
+      <c r="U262" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16633,16 +17943,21 @@
       <c r="P263" t="n">
         <v>9</v>
       </c>
-      <c r="Q263" t="n">
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R263" t="n">
         <v>74</v>
       </c>
-      <c r="R263" t="n">
+      <c r="S263" t="n">
         <v>4</v>
       </c>
-      <c r="S263" t="n">
+      <c r="T263" t="n">
         <v>10</v>
       </c>
-      <c r="T263" t="n">
+      <c r="U263" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16695,16 +18010,21 @@
       <c r="P264" t="n">
         <v>9</v>
       </c>
-      <c r="Q264" t="n">
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R264" t="n">
         <v>74</v>
       </c>
-      <c r="R264" t="n">
-        <v>3</v>
-      </c>
       <c r="S264" t="n">
+        <v>3</v>
+      </c>
+      <c r="T264" t="n">
         <v>10</v>
       </c>
-      <c r="T264" t="n">
+      <c r="U264" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16757,16 +18077,21 @@
       <c r="P265" t="n">
         <v>9</v>
       </c>
-      <c r="Q265" t="n">
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R265" t="n">
         <v>74</v>
       </c>
-      <c r="R265" t="n">
-        <v>2</v>
-      </c>
       <c r="S265" t="n">
+        <v>2</v>
+      </c>
+      <c r="T265" t="n">
         <v>10</v>
       </c>
-      <c r="T265" t="n">
+      <c r="U265" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16819,16 +18144,21 @@
       <c r="P266" t="n">
         <v>9</v>
       </c>
-      <c r="Q266" t="n">
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R266" t="n">
         <v>74</v>
       </c>
-      <c r="R266" t="n">
-        <v>1</v>
-      </c>
       <c r="S266" t="n">
+        <v>1</v>
+      </c>
+      <c r="T266" t="n">
         <v>10</v>
       </c>
-      <c r="T266" t="n">
+      <c r="U266" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16883,16 +18213,21 @@
       <c r="P267" t="n">
         <v>9</v>
       </c>
-      <c r="Q267" t="n">
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R267" t="n">
         <v>73</v>
       </c>
-      <c r="R267" t="n">
+      <c r="S267" t="n">
         <v>4</v>
       </c>
-      <c r="S267" t="n">
+      <c r="T267" t="n">
         <v>10</v>
       </c>
-      <c r="T267" t="n">
+      <c r="U267" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16943,16 +18278,21 @@
       <c r="P268" t="n">
         <v>9</v>
       </c>
-      <c r="Q268" t="n">
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R268" t="n">
         <v>73</v>
       </c>
-      <c r="R268" t="n">
-        <v>3</v>
-      </c>
       <c r="S268" t="n">
+        <v>3</v>
+      </c>
+      <c r="T268" t="n">
         <v>10</v>
       </c>
-      <c r="T268" t="n">
+      <c r="U268" t="n">
         <v>2</v>
       </c>
     </row>
@@ -17003,16 +18343,21 @@
       <c r="P269" t="n">
         <v>9</v>
       </c>
-      <c r="Q269" t="n">
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R269" t="n">
         <v>73</v>
       </c>
-      <c r="R269" t="n">
-        <v>2</v>
-      </c>
       <c r="S269" t="n">
+        <v>2</v>
+      </c>
+      <c r="T269" t="n">
         <v>10</v>
       </c>
-      <c r="T269" t="n">
+      <c r="U269" t="n">
         <v>2</v>
       </c>
     </row>
@@ -17063,16 +18408,21 @@
       <c r="P270" t="n">
         <v>9</v>
       </c>
-      <c r="Q270" t="n">
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R270" t="n">
         <v>73</v>
       </c>
-      <c r="R270" t="n">
-        <v>1</v>
-      </c>
       <c r="S270" t="n">
+        <v>1</v>
+      </c>
+      <c r="T270" t="n">
         <v>10</v>
       </c>
-      <c r="T270" t="n">
+      <c r="U270" t="n">
         <v>2</v>
       </c>
     </row>
@@ -17135,16 +18485,21 @@
       <c r="P271" t="n">
         <v>9</v>
       </c>
-      <c r="Q271" t="n">
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R271" t="n">
         <v>72</v>
       </c>
-      <c r="R271" t="n">
-        <v>2</v>
-      </c>
       <c r="S271" t="n">
+        <v>2</v>
+      </c>
+      <c r="T271" t="n">
         <v>10</v>
       </c>
-      <c r="T271" t="n">
+      <c r="U271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17197,16 +18552,21 @@
       <c r="P272" t="n">
         <v>9</v>
       </c>
-      <c r="Q272" t="n">
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R272" t="n">
         <v>72</v>
       </c>
-      <c r="R272" t="n">
-        <v>1</v>
-      </c>
       <c r="S272" t="n">
+        <v>1</v>
+      </c>
+      <c r="T272" t="n">
         <v>10</v>
       </c>
-      <c r="T272" t="n">
+      <c r="U272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17265,16 +18625,21 @@
       <c r="P273" t="n">
         <v>9</v>
       </c>
-      <c r="Q273" t="n">
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R273" t="n">
         <v>71</v>
       </c>
-      <c r="R273" t="n">
+      <c r="S273" t="n">
         <v>4</v>
       </c>
-      <c r="S273" t="n">
+      <c r="T273" t="n">
         <v>10</v>
       </c>
-      <c r="T273" t="n">
+      <c r="U273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17325,16 +18690,21 @@
       <c r="P274" t="n">
         <v>9</v>
       </c>
-      <c r="Q274" t="n">
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R274" t="n">
         <v>71</v>
       </c>
-      <c r="R274" t="n">
-        <v>3</v>
-      </c>
       <c r="S274" t="n">
+        <v>3</v>
+      </c>
+      <c r="T274" t="n">
         <v>10</v>
       </c>
-      <c r="T274" t="n">
+      <c r="U274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17385,16 +18755,21 @@
       <c r="P275" t="n">
         <v>9</v>
       </c>
-      <c r="Q275" t="n">
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R275" t="n">
         <v>71</v>
       </c>
-      <c r="R275" t="n">
-        <v>2</v>
-      </c>
       <c r="S275" t="n">
+        <v>2</v>
+      </c>
+      <c r="T275" t="n">
         <v>10</v>
       </c>
-      <c r="T275" t="n">
+      <c r="U275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17445,16 +18820,21 @@
       <c r="P276" t="n">
         <v>9</v>
       </c>
-      <c r="Q276" t="n">
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R276" t="n">
         <v>71</v>
       </c>
-      <c r="R276" t="n">
-        <v>1</v>
-      </c>
       <c r="S276" t="n">
+        <v>1</v>
+      </c>
+      <c r="T276" t="n">
         <v>10</v>
       </c>
-      <c r="T276" t="n">
+      <c r="U276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17515,16 +18895,21 @@
       <c r="P277" t="n">
         <v>9</v>
       </c>
-      <c r="Q277" t="n">
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R277" t="n">
         <v>70</v>
       </c>
-      <c r="R277" t="n">
-        <v>2</v>
-      </c>
       <c r="S277" t="n">
+        <v>2</v>
+      </c>
+      <c r="T277" t="n">
         <v>10</v>
       </c>
-      <c r="T277" t="n">
+      <c r="U277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17575,16 +18960,21 @@
       <c r="P278" t="n">
         <v>9</v>
       </c>
-      <c r="Q278" t="n">
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R278" t="n">
         <v>70</v>
       </c>
-      <c r="R278" t="n">
-        <v>1</v>
-      </c>
       <c r="S278" t="n">
+        <v>1</v>
+      </c>
+      <c r="T278" t="n">
         <v>10</v>
       </c>
-      <c r="T278" t="n">
+      <c r="U278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17643,16 +19033,21 @@
       <c r="P279" t="n">
         <v>9</v>
       </c>
-      <c r="Q279" t="n">
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R279" t="n">
         <v>69</v>
       </c>
-      <c r="R279" t="n">
-        <v>2</v>
-      </c>
       <c r="S279" t="n">
+        <v>2</v>
+      </c>
+      <c r="T279" t="n">
         <v>10</v>
       </c>
-      <c r="T279" t="n">
+      <c r="U279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17701,16 +19096,21 @@
       <c r="P280" t="n">
         <v>9</v>
       </c>
-      <c r="Q280" t="n">
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R280" t="n">
         <v>69</v>
       </c>
-      <c r="R280" t="n">
-        <v>1</v>
-      </c>
       <c r="S280" t="n">
+        <v>1</v>
+      </c>
+      <c r="T280" t="n">
         <v>10</v>
       </c>
-      <c r="T280" t="n">
+      <c r="U280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17771,16 +19171,21 @@
       <c r="P281" t="n">
         <v>7</v>
       </c>
-      <c r="Q281" t="n">
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R281" t="n">
         <v>57</v>
       </c>
-      <c r="R281" t="n">
-        <v>1</v>
-      </c>
       <c r="S281" t="n">
         <v>1</v>
       </c>
       <c r="T281" t="n">
+        <v>1</v>
+      </c>
+      <c r="U281" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17841,16 +19246,21 @@
       <c r="P282" t="n">
         <v>7</v>
       </c>
-      <c r="Q282" t="n">
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R282" t="n">
         <v>56</v>
       </c>
-      <c r="R282" t="n">
-        <v>1</v>
-      </c>
       <c r="S282" t="n">
         <v>1</v>
       </c>
       <c r="T282" t="n">
+        <v>1</v>
+      </c>
+      <c r="U282" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17909,16 +19319,21 @@
       <c r="P283" t="n">
         <v>7</v>
       </c>
-      <c r="Q283" t="n">
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R283" t="n">
         <v>55</v>
       </c>
-      <c r="R283" t="n">
-        <v>1</v>
-      </c>
       <c r="S283" t="n">
         <v>1</v>
       </c>
       <c r="T283" t="n">
+        <v>1</v>
+      </c>
+      <c r="U283" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17975,16 +19390,21 @@
       <c r="P284" t="n">
         <v>7</v>
       </c>
-      <c r="Q284" t="n">
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R284" t="n">
         <v>54</v>
       </c>
-      <c r="R284" t="n">
-        <v>1</v>
-      </c>
       <c r="S284" t="n">
         <v>1</v>
       </c>
       <c r="T284" t="n">
+        <v>1</v>
+      </c>
+      <c r="U284" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18041,16 +19461,21 @@
       <c r="P285" t="n">
         <v>8</v>
       </c>
-      <c r="Q285" t="n">
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R285" t="n">
         <v>70</v>
       </c>
-      <c r="R285" t="n">
-        <v>1</v>
-      </c>
       <c r="S285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T285" t="n">
+        <v>2</v>
+      </c>
+      <c r="U285" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18103,16 +19528,21 @@
       <c r="P286" t="n">
         <v>8</v>
       </c>
-      <c r="Q286" t="n">
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R286" t="n">
         <v>69</v>
       </c>
-      <c r="R286" t="n">
-        <v>3</v>
-      </c>
       <c r="S286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T286" t="n">
+        <v>2</v>
+      </c>
+      <c r="U286" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18159,16 +19589,21 @@
       <c r="P287" t="n">
         <v>8</v>
       </c>
-      <c r="Q287" t="n">
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R287" t="n">
         <v>69</v>
       </c>
-      <c r="R287" t="n">
-        <v>2</v>
-      </c>
       <c r="S287" t="n">
         <v>2</v>
       </c>
       <c r="T287" t="n">
+        <v>2</v>
+      </c>
+      <c r="U287" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18215,16 +19650,21 @@
       <c r="P288" t="n">
         <v>8</v>
       </c>
-      <c r="Q288" t="n">
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R288" t="n">
         <v>69</v>
       </c>
-      <c r="R288" t="n">
-        <v>1</v>
-      </c>
       <c r="S288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T288" t="n">
+        <v>2</v>
+      </c>
+      <c r="U288" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18281,16 +19721,21 @@
       <c r="P289" t="n">
         <v>8</v>
       </c>
-      <c r="Q289" t="n">
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R289" t="n">
         <v>68</v>
       </c>
-      <c r="R289" t="n">
-        <v>1</v>
-      </c>
       <c r="S289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T289" t="n">
+        <v>2</v>
+      </c>
+      <c r="U289" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18349,16 +19794,21 @@
       <c r="P290" t="n">
         <v>7</v>
       </c>
-      <c r="Q290" t="n">
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R290" t="n">
         <v>55</v>
       </c>
-      <c r="R290" t="n">
-        <v>1</v>
-      </c>
       <c r="S290" t="n">
         <v>1</v>
       </c>
       <c r="T290" t="n">
+        <v>1</v>
+      </c>
+      <c r="U290" t="n">
         <v>2</v>
       </c>
     </row>
@@ -18417,16 +19867,21 @@
       <c r="P291" t="n">
         <v>7</v>
       </c>
-      <c r="Q291" t="n">
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R291" t="n">
         <v>54</v>
       </c>
-      <c r="R291" t="n">
-        <v>1</v>
-      </c>
       <c r="S291" t="n">
         <v>1</v>
       </c>
       <c r="T291" t="n">
+        <v>1</v>
+      </c>
+      <c r="U291" t="n">
         <v>2</v>
       </c>
     </row>
@@ -18483,16 +19938,21 @@
       <c r="P292" t="n">
         <v>7</v>
       </c>
-      <c r="Q292" t="n">
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R292" t="n">
         <v>53</v>
       </c>
-      <c r="R292" t="n">
-        <v>1</v>
-      </c>
       <c r="S292" t="n">
         <v>1</v>
       </c>
       <c r="T292" t="n">
+        <v>1</v>
+      </c>
+      <c r="U292" t="n">
         <v>2</v>
       </c>
     </row>
@@ -18549,16 +20009,21 @@
       <c r="P293" t="n">
         <v>7</v>
       </c>
-      <c r="Q293" t="n">
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R293" t="n">
         <v>52</v>
       </c>
-      <c r="R293" t="n">
-        <v>1</v>
-      </c>
       <c r="S293" t="n">
         <v>1</v>
       </c>
       <c r="T293" t="n">
+        <v>1</v>
+      </c>
+      <c r="U293" t="n">
         <v>2</v>
       </c>
     </row>
@@ -18619,16 +20084,21 @@
       <c r="P294" t="n">
         <v>5</v>
       </c>
-      <c r="Q294" t="n">
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R294" t="n">
         <v>49</v>
       </c>
-      <c r="R294" t="n">
-        <v>3</v>
-      </c>
       <c r="S294" t="n">
         <v>3</v>
       </c>
       <c r="T294" t="n">
+        <v>3</v>
+      </c>
+      <c r="U294" t="n">
         <v>9</v>
       </c>
     </row>
@@ -18679,16 +20149,21 @@
       <c r="P295" t="n">
         <v>5</v>
       </c>
-      <c r="Q295" t="n">
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R295" t="n">
         <v>49</v>
       </c>
-      <c r="R295" t="n">
-        <v>2</v>
-      </c>
       <c r="S295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T295" t="n">
+        <v>3</v>
+      </c>
+      <c r="U295" t="n">
         <v>9</v>
       </c>
     </row>
@@ -18739,16 +20214,21 @@
       <c r="P296" t="n">
         <v>5</v>
       </c>
-      <c r="Q296" t="n">
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R296" t="n">
         <v>49</v>
       </c>
-      <c r="R296" t="n">
-        <v>1</v>
-      </c>
       <c r="S296" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T296" t="n">
+        <v>3</v>
+      </c>
+      <c r="U296" t="n">
         <v>9</v>
       </c>
     </row>
@@ -18811,16 +20291,21 @@
       <c r="P297" t="n">
         <v>5</v>
       </c>
-      <c r="Q297" t="n">
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R297" t="n">
         <v>48</v>
       </c>
-      <c r="R297" t="n">
-        <v>1</v>
-      </c>
       <c r="S297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T297" t="n">
+        <v>2</v>
+      </c>
+      <c r="U297" t="n">
         <v>9</v>
       </c>
     </row>
@@ -18883,16 +20368,21 @@
       <c r="P298" t="n">
         <v>5</v>
       </c>
-      <c r="Q298" t="n">
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R298" t="n">
         <v>47</v>
       </c>
-      <c r="R298" t="n">
-        <v>2</v>
-      </c>
       <c r="S298" t="n">
         <v>2</v>
       </c>
       <c r="T298" t="n">
+        <v>2</v>
+      </c>
+      <c r="U298" t="n">
         <v>9</v>
       </c>
     </row>
@@ -18945,16 +20435,21 @@
       <c r="P299" t="n">
         <v>5</v>
       </c>
-      <c r="Q299" t="n">
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R299" t="n">
         <v>47</v>
       </c>
-      <c r="R299" t="n">
-        <v>1</v>
-      </c>
       <c r="S299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T299" t="n">
+        <v>2</v>
+      </c>
+      <c r="U299" t="n">
         <v>9</v>
       </c>
     </row>
@@ -19015,16 +20510,21 @@
       <c r="P300" t="n">
         <v>5</v>
       </c>
-      <c r="Q300" t="n">
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R300" t="n">
         <v>46</v>
       </c>
-      <c r="R300" t="n">
-        <v>2</v>
-      </c>
       <c r="S300" t="n">
         <v>2</v>
       </c>
       <c r="T300" t="n">
+        <v>2</v>
+      </c>
+      <c r="U300" t="n">
         <v>9</v>
       </c>
     </row>
@@ -19075,16 +20575,21 @@
       <c r="P301" t="n">
         <v>5</v>
       </c>
-      <c r="Q301" t="n">
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R301" t="n">
         <v>46</v>
       </c>
-      <c r="R301" t="n">
-        <v>1</v>
-      </c>
       <c r="S301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T301" t="n">
+        <v>2</v>
+      </c>
+      <c r="U301" t="n">
         <v>9</v>
       </c>
     </row>
@@ -19143,16 +20648,21 @@
       <c r="P302" t="n">
         <v>5</v>
       </c>
-      <c r="Q302" t="n">
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R302" t="n">
         <v>45</v>
       </c>
-      <c r="R302" t="n">
+      <c r="S302" t="n">
         <v>5</v>
       </c>
-      <c r="S302" t="n">
-        <v>2</v>
-      </c>
       <c r="T302" t="n">
+        <v>2</v>
+      </c>
+      <c r="U302" t="n">
         <v>9</v>
       </c>
     </row>
@@ -19201,16 +20711,21 @@
       <c r="P303" t="n">
         <v>5</v>
       </c>
-      <c r="Q303" t="n">
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R303" t="n">
         <v>45</v>
       </c>
-      <c r="R303" t="n">
+      <c r="S303" t="n">
         <v>4</v>
       </c>
-      <c r="S303" t="n">
-        <v>2</v>
-      </c>
       <c r="T303" t="n">
+        <v>2</v>
+      </c>
+      <c r="U303" t="n">
         <v>9</v>
       </c>
     </row>
@@ -19259,16 +20774,21 @@
       <c r="P304" t="n">
         <v>5</v>
       </c>
-      <c r="Q304" t="n">
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R304" t="n">
         <v>45</v>
       </c>
-      <c r="R304" t="n">
-        <v>3</v>
-      </c>
       <c r="S304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T304" t="n">
+        <v>2</v>
+      </c>
+      <c r="U304" t="n">
         <v>9</v>
       </c>
     </row>
@@ -19317,16 +20837,21 @@
       <c r="P305" t="n">
         <v>5</v>
       </c>
-      <c r="Q305" t="n">
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R305" t="n">
         <v>45</v>
       </c>
-      <c r="R305" t="n">
-        <v>2</v>
-      </c>
       <c r="S305" t="n">
         <v>2</v>
       </c>
       <c r="T305" t="n">
+        <v>2</v>
+      </c>
+      <c r="U305" t="n">
         <v>9</v>
       </c>
     </row>
@@ -19375,16 +20900,21 @@
       <c r="P306" t="n">
         <v>5</v>
       </c>
-      <c r="Q306" t="n">
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R306" t="n">
         <v>45</v>
       </c>
-      <c r="R306" t="n">
-        <v>1</v>
-      </c>
       <c r="S306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T306" t="n">
+        <v>2</v>
+      </c>
+      <c r="U306" t="n">
         <v>9</v>
       </c>
     </row>
@@ -19441,16 +20971,21 @@
       <c r="P307" t="n">
         <v>4</v>
       </c>
-      <c r="Q307" t="n">
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R307" t="n">
         <v>31</v>
       </c>
-      <c r="R307" t="n">
-        <v>1</v>
-      </c>
       <c r="S307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T307" t="n">
+        <v>0</v>
+      </c>
+      <c r="U307" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19507,16 +21042,21 @@
       <c r="P308" t="n">
         <v>4</v>
       </c>
-      <c r="Q308" t="n">
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R308" t="n">
         <v>30</v>
       </c>
-      <c r="R308" t="n">
-        <v>1</v>
-      </c>
       <c r="S308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T308" t="n">
+        <v>0</v>
+      </c>
+      <c r="U308" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19573,16 +21113,21 @@
       <c r="P309" t="n">
         <v>4</v>
       </c>
-      <c r="Q309" t="n">
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R309" t="n">
         <v>29</v>
       </c>
-      <c r="R309" t="n">
-        <v>1</v>
-      </c>
       <c r="S309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T309" t="n">
+        <v>0</v>
+      </c>
+      <c r="U309" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19643,16 +21188,21 @@
       <c r="P310" t="n">
         <v>6</v>
       </c>
-      <c r="Q310" t="n">
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R310" t="n">
         <v>43</v>
       </c>
-      <c r="R310" t="n">
-        <v>1</v>
-      </c>
       <c r="S310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T310" t="n">
+        <v>0</v>
+      </c>
+      <c r="U310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19711,16 +21261,21 @@
       <c r="P311" t="n">
         <v>6</v>
       </c>
-      <c r="Q311" t="n">
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R311" t="n">
         <v>42</v>
       </c>
-      <c r="R311" t="n">
-        <v>1</v>
-      </c>
       <c r="S311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T311" t="n">
+        <v>0</v>
+      </c>
+      <c r="U311" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19777,16 +21332,21 @@
       <c r="P312" t="n">
         <v>6</v>
       </c>
-      <c r="Q312" t="n">
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R312" t="n">
         <v>41</v>
       </c>
-      <c r="R312" t="n">
-        <v>1</v>
-      </c>
       <c r="S312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T312" t="n">
+        <v>0</v>
+      </c>
+      <c r="U312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19839,16 +21399,21 @@
       <c r="P313" t="n">
         <v>6</v>
       </c>
-      <c r="Q313" t="n">
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R313" t="n">
         <v>40</v>
       </c>
-      <c r="R313" t="n">
-        <v>3</v>
-      </c>
       <c r="S313" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T313" t="n">
+        <v>0</v>
+      </c>
+      <c r="U313" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19895,16 +21460,21 @@
       <c r="P314" t="n">
         <v>6</v>
       </c>
-      <c r="Q314" t="n">
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R314" t="n">
         <v>40</v>
       </c>
-      <c r="R314" t="n">
-        <v>2</v>
-      </c>
       <c r="S314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T314" t="n">
+        <v>0</v>
+      </c>
+      <c r="U314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19951,16 +21521,21 @@
       <c r="P315" t="n">
         <v>6</v>
       </c>
-      <c r="Q315" t="n">
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R315" t="n">
         <v>40</v>
       </c>
-      <c r="R315" t="n">
-        <v>1</v>
-      </c>
       <c r="S315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T315" t="n">
+        <v>0</v>
+      </c>
+      <c r="U315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20013,16 +21588,21 @@
       <c r="P316" t="n">
         <v>6</v>
       </c>
-      <c r="Q316" t="n">
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R316" t="n">
         <v>39</v>
       </c>
-      <c r="R316" t="n">
-        <v>3</v>
-      </c>
       <c r="S316" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T316" t="n">
+        <v>0</v>
+      </c>
+      <c r="U316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20069,16 +21649,21 @@
       <c r="P317" t="n">
         <v>6</v>
       </c>
-      <c r="Q317" t="n">
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R317" t="n">
         <v>39</v>
       </c>
-      <c r="R317" t="n">
-        <v>2</v>
-      </c>
       <c r="S317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T317" t="n">
+        <v>0</v>
+      </c>
+      <c r="U317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20125,16 +21710,21 @@
       <c r="P318" t="n">
         <v>6</v>
       </c>
-      <c r="Q318" t="n">
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R318" t="n">
         <v>39</v>
       </c>
-      <c r="R318" t="n">
-        <v>1</v>
-      </c>
       <c r="S318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T318" t="n">
+        <v>0</v>
+      </c>
+      <c r="U318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20197,16 +21787,21 @@
       <c r="P319" t="n">
         <v>5</v>
       </c>
-      <c r="Q319" t="n">
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R319" t="n">
         <v>40</v>
       </c>
-      <c r="R319" t="n">
-        <v>1</v>
-      </c>
       <c r="S319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T319" t="n">
+        <v>2</v>
+      </c>
+      <c r="U319" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20261,16 +21856,21 @@
       <c r="P320" t="n">
         <v>5</v>
       </c>
-      <c r="Q320" t="n">
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R320" t="n">
         <v>39</v>
       </c>
-      <c r="R320" t="n">
+      <c r="S320" t="n">
         <v>4</v>
       </c>
-      <c r="S320" t="n">
-        <v>2</v>
-      </c>
       <c r="T320" t="n">
+        <v>2</v>
+      </c>
+      <c r="U320" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20321,16 +21921,21 @@
       <c r="P321" t="n">
         <v>5</v>
       </c>
-      <c r="Q321" t="n">
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R321" t="n">
         <v>39</v>
       </c>
-      <c r="R321" t="n">
-        <v>3</v>
-      </c>
       <c r="S321" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T321" t="n">
+        <v>2</v>
+      </c>
+      <c r="U321" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20381,16 +21986,21 @@
       <c r="P322" t="n">
         <v>5</v>
       </c>
-      <c r="Q322" t="n">
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R322" t="n">
         <v>39</v>
       </c>
-      <c r="R322" t="n">
-        <v>2</v>
-      </c>
       <c r="S322" t="n">
         <v>2</v>
       </c>
       <c r="T322" t="n">
+        <v>2</v>
+      </c>
+      <c r="U322" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20441,16 +22051,21 @@
       <c r="P323" t="n">
         <v>5</v>
       </c>
-      <c r="Q323" t="n">
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R323" t="n">
         <v>39</v>
       </c>
-      <c r="R323" t="n">
-        <v>1</v>
-      </c>
       <c r="S323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T323" t="n">
+        <v>2</v>
+      </c>
+      <c r="U323" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20503,16 +22118,21 @@
       <c r="P324" t="n">
         <v>5</v>
       </c>
-      <c r="Q324" t="n">
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R324" t="n">
         <v>38</v>
       </c>
-      <c r="R324" t="n">
-        <v>1</v>
-      </c>
       <c r="S324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T324" t="n">
+        <v>2</v>
+      </c>
+      <c r="U324" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20569,16 +22189,21 @@
       <c r="P325" t="n">
         <v>5</v>
       </c>
-      <c r="Q325" t="n">
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R325" t="n">
         <v>37</v>
       </c>
-      <c r="R325" t="n">
-        <v>1</v>
-      </c>
       <c r="S325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T325" t="n">
+        <v>2</v>
+      </c>
+      <c r="U325" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20635,16 +22260,21 @@
       <c r="P326" t="n">
         <v>5</v>
       </c>
-      <c r="Q326" t="n">
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R326" t="n">
         <v>36</v>
       </c>
-      <c r="R326" t="n">
-        <v>1</v>
-      </c>
       <c r="S326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T326" t="n">
+        <v>2</v>
+      </c>
+      <c r="U326" t="n">
         <v>2</v>
       </c>
     </row>
